--- a/SAE_3_01/fichiers genere/S3BFI.xlsx
+++ b/SAE_3_01/fichiers genere/S3BFI.xlsx
@@ -3307,10 +3307,18 @@
       <c r="R34" s="28" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="28" t="n"/>
+      <c r="A35" s="28" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
       <c r="B35" s="29" t="n"/>
       <c r="C35" s="28" t="n"/>
-      <c r="D35" s="28" t="n"/>
+      <c r="D35" s="28" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E35" s="28" t="n"/>
       <c r="F35" s="28" t="n"/>
       <c r="G35" s="28" t="n"/>
@@ -3327,9 +3335,21 @@
       <c r="R35" s="28" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="28" t="n"/>
-      <c r="B36" s="29" t="n"/>
-      <c r="C36" s="28" t="n"/>
+      <c r="A36" s="28" t="inlineStr">
+        <is>
+          <t>2023-09-11</t>
+        </is>
+      </c>
+      <c r="B36" s="29" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
+      <c r="C36" s="28" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D36" s="28" t="n"/>
       <c r="E36" s="28" t="n"/>
       <c r="F36" s="28" t="n"/>
@@ -3347,9 +3367,21 @@
       <c r="R36" s="28" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="28" t="n"/>
-      <c r="B37" s="29" t="n"/>
-      <c r="C37" s="28" t="n"/>
+      <c r="A37" s="28" t="inlineStr">
+        <is>
+          <t>2023-09-18</t>
+        </is>
+      </c>
+      <c r="B37" s="29" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
+      <c r="C37" s="28" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D37" s="28" t="n"/>
       <c r="E37" s="28" t="n"/>
       <c r="F37" s="28" t="n"/>
@@ -3367,10 +3399,22 @@
       <c r="R37" s="28" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="28" t="n"/>
+      <c r="A38" s="28" t="inlineStr">
+        <is>
+          <t>2023-09-25</t>
+        </is>
+      </c>
       <c r="B38" s="28" t="n"/>
-      <c r="C38" s="28" t="n"/>
-      <c r="D38" s="28" t="n"/>
+      <c r="C38" s="28" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
+      <c r="D38" s="28" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E38" s="28" t="n"/>
       <c r="F38" s="28" t="n"/>
       <c r="G38" s="28" t="n"/>
@@ -3387,9 +3431,17 @@
       <c r="R38" s="28" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="28" t="n"/>
+      <c r="A39" s="28" t="inlineStr">
+        <is>
+          <t>2023-10-02</t>
+        </is>
+      </c>
       <c r="B39" s="28" t="n"/>
-      <c r="C39" s="28" t="n"/>
+      <c r="C39" s="28" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D39" s="28" t="n"/>
       <c r="E39" s="28" t="n"/>
       <c r="F39" s="28" t="n"/>
@@ -3407,9 +3459,21 @@
       <c r="R39" s="28" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" s="28" t="n"/>
-      <c r="B40" s="28" t="n"/>
-      <c r="C40" s="28" t="n"/>
+      <c r="A40" s="28" t="inlineStr">
+        <is>
+          <t>2023-11-13</t>
+        </is>
+      </c>
+      <c r="B40" s="28" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
+      <c r="C40" s="28" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D40" s="28" t="n"/>
       <c r="E40" s="28" t="n"/>
       <c r="F40" s="28" t="n"/>
@@ -3427,10 +3491,18 @@
       <c r="R40" s="28" t="n"/>
     </row>
     <row r="41">
-      <c r="A41" s="28" t="n"/>
+      <c r="A41" s="28" t="inlineStr">
+        <is>
+          <t>2023-11-20</t>
+        </is>
+      </c>
       <c r="B41" s="28" t="n"/>
       <c r="C41" s="28" t="n"/>
-      <c r="D41" s="28" t="n"/>
+      <c r="D41" s="28" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E41" s="28" t="n"/>
       <c r="F41" s="28" t="n"/>
       <c r="G41" s="28" t="n"/>
@@ -3447,7 +3519,11 @@
       <c r="R41" s="28" t="n"/>
     </row>
     <row r="42">
-      <c r="A42" s="28" t="n"/>
+      <c r="A42" s="28" t="inlineStr">
+        <is>
+          <t>2023-11-27</t>
+        </is>
+      </c>
       <c r="B42" s="28" t="n"/>
       <c r="C42" s="28" t="n"/>
       <c r="D42" s="28" t="n"/>
@@ -5098,8 +5174,16 @@
       <c r="R34" s="28" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="28" t="n"/>
-      <c r="B35" s="29" t="n"/>
+      <c r="A35" s="28" t="inlineStr">
+        <is>
+          <t>2023-09-25</t>
+        </is>
+      </c>
+      <c r="B35" s="29" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
       <c r="C35" s="28" t="n"/>
       <c r="D35" s="28" t="n"/>
       <c r="E35" s="28" t="n"/>
@@ -5118,9 +5202,17 @@
       <c r="R35" s="28" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="28" t="n"/>
+      <c r="A36" s="28" t="inlineStr">
+        <is>
+          <t>2023-10-02</t>
+        </is>
+      </c>
       <c r="B36" s="29" t="n"/>
-      <c r="C36" s="28" t="n"/>
+      <c r="C36" s="28" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D36" s="28" t="n"/>
       <c r="E36" s="28" t="n"/>
       <c r="F36" s="28" t="n"/>
@@ -5138,9 +5230,17 @@
       <c r="R36" s="28" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="28" t="n"/>
+      <c r="A37" s="28" t="inlineStr">
+        <is>
+          <t>2023-11-06</t>
+        </is>
+      </c>
       <c r="B37" s="29" t="n"/>
-      <c r="C37" s="28" t="n"/>
+      <c r="C37" s="28" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D37" s="28" t="n"/>
       <c r="E37" s="28" t="n"/>
       <c r="F37" s="28" t="n"/>
@@ -5158,9 +5258,21 @@
       <c r="R37" s="28" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="28" t="n"/>
-      <c r="B38" s="28" t="n"/>
-      <c r="C38" s="28" t="n"/>
+      <c r="A38" s="28" t="inlineStr">
+        <is>
+          <t>2023-11-13</t>
+        </is>
+      </c>
+      <c r="B38" s="28" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
+      <c r="C38" s="28" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D38" s="28" t="n"/>
       <c r="E38" s="28" t="n"/>
       <c r="F38" s="28" t="n"/>
@@ -5178,9 +5290,17 @@
       <c r="R38" s="28" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="28" t="n"/>
+      <c r="A39" s="28" t="inlineStr">
+        <is>
+          <t>2023-11-20</t>
+        </is>
+      </c>
       <c r="B39" s="28" t="n"/>
-      <c r="C39" s="28" t="n"/>
+      <c r="C39" s="28" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D39" s="28" t="n"/>
       <c r="E39" s="28" t="n"/>
       <c r="F39" s="28" t="n"/>
@@ -5198,9 +5318,17 @@
       <c r="R39" s="28" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" s="28" t="n"/>
+      <c r="A40" s="28" t="inlineStr">
+        <is>
+          <t>2023-11-27</t>
+        </is>
+      </c>
       <c r="B40" s="28" t="n"/>
-      <c r="C40" s="28" t="n"/>
+      <c r="C40" s="28" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D40" s="28" t="n"/>
       <c r="E40" s="28" t="n"/>
       <c r="F40" s="28" t="n"/>
@@ -5218,9 +5346,17 @@
       <c r="R40" s="28" t="n"/>
     </row>
     <row r="41">
-      <c r="A41" s="28" t="n"/>
+      <c r="A41" s="28" t="inlineStr">
+        <is>
+          <t>2023-12-04</t>
+        </is>
+      </c>
       <c r="B41" s="28" t="n"/>
-      <c r="C41" s="28" t="n"/>
+      <c r="C41" s="28" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D41" s="28" t="n"/>
       <c r="E41" s="28" t="n"/>
       <c r="F41" s="28" t="n"/>
@@ -6889,8 +7025,16 @@
       <c r="R34" s="28" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="28" t="n"/>
-      <c r="B35" s="29" t="n"/>
+      <c r="A35" s="28" t="inlineStr">
+        <is>
+          <t>2023-09-25</t>
+        </is>
+      </c>
+      <c r="B35" s="29" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
       <c r="C35" s="28" t="n"/>
       <c r="D35" s="28" t="n"/>
       <c r="E35" s="28" t="n"/>
@@ -6909,8 +7053,16 @@
       <c r="R35" s="28" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="28" t="n"/>
-      <c r="B36" s="29" t="n"/>
+      <c r="A36" s="28" t="inlineStr">
+        <is>
+          <t>2023-10-02</t>
+        </is>
+      </c>
+      <c r="B36" s="29" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
       <c r="C36" s="28" t="n"/>
       <c r="D36" s="28" t="n"/>
       <c r="E36" s="28" t="n"/>
@@ -6929,9 +7081,21 @@
       <c r="R36" s="28" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="28" t="n"/>
-      <c r="B37" s="29" t="n"/>
-      <c r="C37" s="28" t="n"/>
+      <c r="A37" s="28" t="inlineStr">
+        <is>
+          <t>2023-11-06</t>
+        </is>
+      </c>
+      <c r="B37" s="29" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
+      <c r="C37" s="28" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D37" s="28" t="n"/>
       <c r="E37" s="28" t="n"/>
       <c r="F37" s="28" t="n"/>
@@ -6949,9 +7113,17 @@
       <c r="R37" s="28" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="28" t="n"/>
+      <c r="A38" s="28" t="inlineStr">
+        <is>
+          <t>2023-11-13</t>
+        </is>
+      </c>
       <c r="B38" s="28" t="n"/>
-      <c r="C38" s="28" t="n"/>
+      <c r="C38" s="28" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D38" s="28" t="n"/>
       <c r="E38" s="28" t="n"/>
       <c r="F38" s="28" t="n"/>
@@ -6969,10 +7141,18 @@
       <c r="R38" s="28" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="28" t="n"/>
+      <c r="A39" s="28" t="inlineStr">
+        <is>
+          <t>2023-11-20</t>
+        </is>
+      </c>
       <c r="B39" s="28" t="n"/>
       <c r="C39" s="28" t="n"/>
-      <c r="D39" s="28" t="n"/>
+      <c r="D39" s="28" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E39" s="28" t="n"/>
       <c r="F39" s="28" t="n"/>
       <c r="G39" s="28" t="n"/>
@@ -6989,10 +7169,18 @@
       <c r="R39" s="28" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" s="28" t="n"/>
+      <c r="A40" s="28" t="inlineStr">
+        <is>
+          <t>2023-11-27</t>
+        </is>
+      </c>
       <c r="B40" s="28" t="n"/>
       <c r="C40" s="28" t="n"/>
-      <c r="D40" s="28" t="n"/>
+      <c r="D40" s="28" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E40" s="28" t="n"/>
       <c r="F40" s="28" t="n"/>
       <c r="G40" s="28" t="n"/>
@@ -8680,9 +8868,17 @@
       <c r="R34" s="28" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="28" t="n"/>
+      <c r="A35" s="28" t="inlineStr">
+        <is>
+          <t>2023-09-11</t>
+        </is>
+      </c>
       <c r="B35" s="29" t="n"/>
-      <c r="C35" s="28" t="n"/>
+      <c r="C35" s="28" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D35" s="28" t="n"/>
       <c r="E35" s="28" t="n"/>
       <c r="F35" s="28" t="n"/>
@@ -8700,10 +8896,18 @@
       <c r="R35" s="28" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="28" t="n"/>
+      <c r="A36" s="28" t="inlineStr">
+        <is>
+          <t>2023-09-18</t>
+        </is>
+      </c>
       <c r="B36" s="29" t="n"/>
       <c r="C36" s="28" t="n"/>
-      <c r="D36" s="28" t="n"/>
+      <c r="D36" s="28" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E36" s="28" t="n"/>
       <c r="F36" s="28" t="n"/>
       <c r="G36" s="28" t="n"/>
@@ -8720,9 +8924,17 @@
       <c r="R36" s="28" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="28" t="n"/>
+      <c r="A37" s="28" t="inlineStr">
+        <is>
+          <t>2023-09-25</t>
+        </is>
+      </c>
       <c r="B37" s="29" t="n"/>
-      <c r="C37" s="28" t="n"/>
+      <c r="C37" s="28" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D37" s="28" t="n"/>
       <c r="E37" s="28" t="n"/>
       <c r="F37" s="28" t="n"/>
@@ -10471,9 +10683,21 @@
       <c r="R34" s="28" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="28" t="n"/>
-      <c r="B35" s="29" t="n"/>
-      <c r="C35" s="28" t="n"/>
+      <c r="A35" s="28" t="inlineStr">
+        <is>
+          <t>2023-12-11</t>
+        </is>
+      </c>
+      <c r="B35" s="29" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
+      <c r="C35" s="28" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D35" s="28" t="n"/>
       <c r="E35" s="28" t="n"/>
       <c r="F35" s="28" t="n"/>
@@ -10491,9 +10715,21 @@
       <c r="R35" s="28" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="28" t="n"/>
-      <c r="B36" s="29" t="n"/>
-      <c r="C36" s="28" t="n"/>
+      <c r="A36" s="28" t="inlineStr">
+        <is>
+          <t>2023-12-18</t>
+        </is>
+      </c>
+      <c r="B36" s="29" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
+      <c r="C36" s="28" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D36" s="28" t="n"/>
       <c r="E36" s="28" t="n"/>
       <c r="F36" s="28" t="n"/>
@@ -10511,9 +10747,17 @@
       <c r="R36" s="28" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="28" t="n"/>
+      <c r="A37" s="28" t="inlineStr">
+        <is>
+          <t>2024-01-08</t>
+        </is>
+      </c>
       <c r="B37" s="29" t="n"/>
-      <c r="C37" s="28" t="n"/>
+      <c r="C37" s="28" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D37" s="28" t="n"/>
       <c r="E37" s="28" t="n"/>
       <c r="F37" s="28" t="n"/>
@@ -12262,10 +12506,18 @@
       <c r="R34" s="28" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="28" t="n"/>
+      <c r="A35" s="28" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
       <c r="B35" s="29" t="n"/>
       <c r="C35" s="28" t="n"/>
-      <c r="D35" s="28" t="n"/>
+      <c r="D35" s="28" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E35" s="28" t="n"/>
       <c r="F35" s="28" t="n"/>
       <c r="G35" s="28" t="n"/>
@@ -12282,10 +12534,18 @@
       <c r="R35" s="28" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="28" t="n"/>
+      <c r="A36" s="28" t="inlineStr">
+        <is>
+          <t>2023-09-11</t>
+        </is>
+      </c>
       <c r="B36" s="29" t="n"/>
       <c r="C36" s="28" t="n"/>
-      <c r="D36" s="28" t="n"/>
+      <c r="D36" s="28" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E36" s="28" t="n"/>
       <c r="F36" s="28" t="n"/>
       <c r="G36" s="28" t="n"/>
@@ -12302,10 +12562,18 @@
       <c r="R36" s="28" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="28" t="n"/>
+      <c r="A37" s="28" t="inlineStr">
+        <is>
+          <t>2023-09-18</t>
+        </is>
+      </c>
       <c r="B37" s="29" t="n"/>
       <c r="C37" s="28" t="n"/>
-      <c r="D37" s="28" t="n"/>
+      <c r="D37" s="28" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E37" s="28" t="n"/>
       <c r="F37" s="28" t="n"/>
       <c r="G37" s="28" t="n"/>
@@ -12322,10 +12590,18 @@
       <c r="R37" s="28" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="28" t="n"/>
+      <c r="A38" s="28" t="inlineStr">
+        <is>
+          <t>2023-09-25</t>
+        </is>
+      </c>
       <c r="B38" s="28" t="n"/>
       <c r="C38" s="28" t="n"/>
-      <c r="D38" s="28" t="n"/>
+      <c r="D38" s="28" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E38" s="28" t="n"/>
       <c r="F38" s="28" t="n"/>
       <c r="G38" s="28" t="n"/>
@@ -12342,7 +12618,11 @@
       <c r="R38" s="28" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="28" t="n"/>
+      <c r="A39" s="28" t="inlineStr">
+        <is>
+          <t>2023-11-06</t>
+        </is>
+      </c>
       <c r="B39" s="28" t="n"/>
       <c r="C39" s="28" t="n"/>
       <c r="D39" s="28" t="n"/>
@@ -14053,8 +14333,16 @@
       <c r="R34" s="28" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="28" t="n"/>
-      <c r="B35" s="29" t="n"/>
+      <c r="A35" s="28" t="inlineStr">
+        <is>
+          <t>2023-09-18</t>
+        </is>
+      </c>
+      <c r="B35" s="29" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
       <c r="C35" s="28" t="n"/>
       <c r="D35" s="28" t="n"/>
       <c r="E35" s="28" t="n"/>
@@ -14073,9 +14361,21 @@
       <c r="R35" s="28" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="28" t="n"/>
-      <c r="B36" s="29" t="n"/>
-      <c r="C36" s="28" t="n"/>
+      <c r="A36" s="28" t="inlineStr">
+        <is>
+          <t>2023-09-25</t>
+        </is>
+      </c>
+      <c r="B36" s="29" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
+      <c r="C36" s="28" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D36" s="28" t="n"/>
       <c r="E36" s="28" t="n"/>
       <c r="F36" s="28" t="n"/>
@@ -14093,9 +14393,17 @@
       <c r="R36" s="28" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="28" t="n"/>
+      <c r="A37" s="28" t="inlineStr">
+        <is>
+          <t>2023-10-02</t>
+        </is>
+      </c>
       <c r="B37" s="29" t="n"/>
-      <c r="C37" s="28" t="n"/>
+      <c r="C37" s="28" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D37" s="28" t="n"/>
       <c r="E37" s="28" t="n"/>
       <c r="F37" s="28" t="n"/>
@@ -14113,10 +14421,18 @@
       <c r="R37" s="28" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="28" t="n"/>
+      <c r="A38" s="28" t="inlineStr">
+        <is>
+          <t>2023-11-13</t>
+        </is>
+      </c>
       <c r="B38" s="28" t="n"/>
       <c r="C38" s="28" t="n"/>
-      <c r="D38" s="28" t="n"/>
+      <c r="D38" s="28" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E38" s="28" t="n"/>
       <c r="F38" s="28" t="n"/>
       <c r="G38" s="28" t="n"/>
@@ -14133,10 +14449,18 @@
       <c r="R38" s="28" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="28" t="n"/>
+      <c r="A39" s="28" t="inlineStr">
+        <is>
+          <t>2023-11-20</t>
+        </is>
+      </c>
       <c r="B39" s="28" t="n"/>
       <c r="C39" s="28" t="n"/>
-      <c r="D39" s="28" t="n"/>
+      <c r="D39" s="28" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E39" s="28" t="n"/>
       <c r="F39" s="28" t="n"/>
       <c r="G39" s="28" t="n"/>
@@ -15844,9 +16168,17 @@
       <c r="R34" s="28" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="28" t="n"/>
+      <c r="A35" s="28" t="inlineStr">
+        <is>
+          <t>2023-09-18</t>
+        </is>
+      </c>
       <c r="B35" s="29" t="n"/>
-      <c r="C35" s="28" t="n"/>
+      <c r="C35" s="28" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D35" s="28" t="n"/>
       <c r="E35" s="28" t="n"/>
       <c r="F35" s="28" t="n"/>
@@ -15864,10 +16196,18 @@
       <c r="R35" s="28" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="28" t="n"/>
+      <c r="A36" s="28" t="inlineStr">
+        <is>
+          <t>2023-11-06</t>
+        </is>
+      </c>
       <c r="B36" s="29" t="n"/>
       <c r="C36" s="28" t="n"/>
-      <c r="D36" s="28" t="n"/>
+      <c r="D36" s="28" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E36" s="28" t="n"/>
       <c r="F36" s="28" t="n"/>
       <c r="G36" s="28" t="n"/>
@@ -15884,10 +16224,18 @@
       <c r="R36" s="28" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="28" t="n"/>
+      <c r="A37" s="28" t="inlineStr">
+        <is>
+          <t>2023-11-13</t>
+        </is>
+      </c>
       <c r="B37" s="29" t="n"/>
       <c r="C37" s="28" t="n"/>
-      <c r="D37" s="28" t="n"/>
+      <c r="D37" s="28" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E37" s="28" t="n"/>
       <c r="F37" s="28" t="n"/>
       <c r="G37" s="28" t="n"/>
@@ -15904,7 +16252,11 @@
       <c r="R37" s="28" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="28" t="n"/>
+      <c r="A38" s="28" t="inlineStr">
+        <is>
+          <t>2023-11-27</t>
+        </is>
+      </c>
       <c r="B38" s="28" t="n"/>
       <c r="C38" s="28" t="n"/>
       <c r="D38" s="28" t="n"/>
@@ -17635,8 +17987,16 @@
       <c r="R34" s="28" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="28" t="n"/>
-      <c r="B35" s="29" t="n"/>
+      <c r="A35" s="28" t="inlineStr">
+        <is>
+          <t>2023-09-25</t>
+        </is>
+      </c>
+      <c r="B35" s="29" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
       <c r="C35" s="28" t="n"/>
       <c r="D35" s="28" t="n"/>
       <c r="E35" s="28" t="n"/>
@@ -17655,9 +18015,21 @@
       <c r="R35" s="28" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="28" t="n"/>
-      <c r="B36" s="29" t="n"/>
-      <c r="C36" s="28" t="n"/>
+      <c r="A36" s="28" t="inlineStr">
+        <is>
+          <t>2023-10-02</t>
+        </is>
+      </c>
+      <c r="B36" s="29" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
+      <c r="C36" s="28" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D36" s="28" t="n"/>
       <c r="E36" s="28" t="n"/>
       <c r="F36" s="28" t="n"/>
@@ -17675,9 +18047,21 @@
       <c r="R36" s="28" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="28" t="n"/>
-      <c r="B37" s="29" t="n"/>
-      <c r="C37" s="28" t="n"/>
+      <c r="A37" s="28" t="inlineStr">
+        <is>
+          <t>2023-11-06</t>
+        </is>
+      </c>
+      <c r="B37" s="29" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
+      <c r="C37" s="28" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D37" s="28" t="n"/>
       <c r="E37" s="28" t="n"/>
       <c r="F37" s="28" t="n"/>
@@ -17695,10 +18079,18 @@
       <c r="R37" s="28" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="28" t="n"/>
+      <c r="A38" s="28" t="inlineStr">
+        <is>
+          <t>2023-11-13</t>
+        </is>
+      </c>
       <c r="B38" s="28" t="n"/>
       <c r="C38" s="28" t="n"/>
-      <c r="D38" s="28" t="n"/>
+      <c r="D38" s="28" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E38" s="28" t="n"/>
       <c r="F38" s="28" t="n"/>
       <c r="G38" s="28" t="n"/>
@@ -17715,10 +18107,18 @@
       <c r="R38" s="28" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="28" t="n"/>
+      <c r="A39" s="28" t="inlineStr">
+        <is>
+          <t>2023-11-20</t>
+        </is>
+      </c>
       <c r="B39" s="28" t="n"/>
       <c r="C39" s="28" t="n"/>
-      <c r="D39" s="28" t="n"/>
+      <c r="D39" s="28" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E39" s="28" t="n"/>
       <c r="F39" s="28" t="n"/>
       <c r="G39" s="28" t="n"/>
@@ -17735,10 +18135,18 @@
       <c r="R39" s="28" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" s="28" t="n"/>
+      <c r="A40" s="28" t="inlineStr">
+        <is>
+          <t>2023-11-27</t>
+        </is>
+      </c>
       <c r="B40" s="28" t="n"/>
       <c r="C40" s="28" t="n"/>
-      <c r="D40" s="28" t="n"/>
+      <c r="D40" s="28" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E40" s="28" t="n"/>
       <c r="F40" s="28" t="n"/>
       <c r="G40" s="28" t="n"/>
@@ -17755,10 +18163,18 @@
       <c r="R40" s="28" t="n"/>
     </row>
     <row r="41">
-      <c r="A41" s="28" t="n"/>
+      <c r="A41" s="28" t="inlineStr">
+        <is>
+          <t>2023-12-04</t>
+        </is>
+      </c>
       <c r="B41" s="28" t="n"/>
       <c r="C41" s="28" t="n"/>
-      <c r="D41" s="28" t="n"/>
+      <c r="D41" s="28" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E41" s="28" t="n"/>
       <c r="F41" s="28" t="n"/>
       <c r="G41" s="28" t="n"/>
@@ -19426,9 +19842,21 @@
       <c r="R34" s="28" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="28" t="n"/>
-      <c r="B35" s="29" t="n"/>
-      <c r="C35" s="28" t="n"/>
+      <c r="A35" s="28" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="B35" s="29" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
+      <c r="C35" s="28" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D35" s="28" t="n"/>
       <c r="E35" s="28" t="n"/>
       <c r="F35" s="28" t="n"/>
@@ -19446,10 +19874,18 @@
       <c r="R35" s="28" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="28" t="n"/>
+      <c r="A36" s="28" t="inlineStr">
+        <is>
+          <t>2023-09-11</t>
+        </is>
+      </c>
       <c r="B36" s="29" t="n"/>
       <c r="C36" s="28" t="n"/>
-      <c r="D36" s="28" t="n"/>
+      <c r="D36" s="28" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E36" s="28" t="n"/>
       <c r="F36" s="28" t="n"/>
       <c r="G36" s="28" t="n"/>
@@ -19466,10 +19902,22 @@
       <c r="R36" s="28" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="28" t="n"/>
-      <c r="B37" s="29" t="n"/>
+      <c r="A37" s="28" t="inlineStr">
+        <is>
+          <t>2023-11-06</t>
+        </is>
+      </c>
+      <c r="B37" s="29" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
       <c r="C37" s="28" t="n"/>
-      <c r="D37" s="28" t="n"/>
+      <c r="D37" s="28" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E37" s="28" t="n"/>
       <c r="F37" s="28" t="n"/>
       <c r="G37" s="28" t="n"/>
@@ -19486,9 +19934,21 @@
       <c r="R37" s="28" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="28" t="n"/>
-      <c r="B38" s="28" t="n"/>
-      <c r="C38" s="28" t="n"/>
+      <c r="A38" s="28" t="inlineStr">
+        <is>
+          <t>2023-11-13</t>
+        </is>
+      </c>
+      <c r="B38" s="28" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
+      <c r="C38" s="28" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D38" s="28" t="n"/>
       <c r="E38" s="28" t="n"/>
       <c r="F38" s="28" t="n"/>
@@ -19506,8 +19966,16 @@
       <c r="R38" s="28" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="28" t="n"/>
-      <c r="B39" s="28" t="n"/>
+      <c r="A39" s="28" t="inlineStr">
+        <is>
+          <t>2023-11-20</t>
+        </is>
+      </c>
+      <c r="B39" s="28" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
       <c r="C39" s="28" t="n"/>
       <c r="D39" s="28" t="n"/>
       <c r="E39" s="28" t="n"/>
@@ -19526,9 +19994,21 @@
       <c r="R39" s="28" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" s="28" t="n"/>
-      <c r="B40" s="28" t="n"/>
-      <c r="C40" s="28" t="n"/>
+      <c r="A40" s="28" t="inlineStr">
+        <is>
+          <t>2023-11-27</t>
+        </is>
+      </c>
+      <c r="B40" s="28" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
+      <c r="C40" s="28" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D40" s="28" t="n"/>
       <c r="E40" s="28" t="n"/>
       <c r="F40" s="28" t="n"/>
@@ -19546,7 +20026,11 @@
       <c r="R40" s="28" t="n"/>
     </row>
     <row r="41">
-      <c r="A41" s="28" t="n"/>
+      <c r="A41" s="28" t="inlineStr">
+        <is>
+          <t>2023-12-04</t>
+        </is>
+      </c>
       <c r="B41" s="28" t="n"/>
       <c r="C41" s="28" t="n"/>
       <c r="D41" s="28" t="n"/>
@@ -21217,10 +21701,22 @@
       <c r="R34" s="28" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="28" t="n"/>
-      <c r="B35" s="29" t="n"/>
+      <c r="A35" s="28" t="inlineStr">
+        <is>
+          <t>2023-11-20</t>
+        </is>
+      </c>
+      <c r="B35" s="29" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
       <c r="C35" s="28" t="n"/>
-      <c r="D35" s="28" t="n"/>
+      <c r="D35" s="28" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E35" s="28" t="n"/>
       <c r="F35" s="28" t="n"/>
       <c r="G35" s="28" t="n"/>
@@ -21237,9 +21733,21 @@
       <c r="R35" s="28" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="28" t="n"/>
-      <c r="B36" s="29" t="n"/>
-      <c r="C36" s="28" t="n"/>
+      <c r="A36" s="28" t="inlineStr">
+        <is>
+          <t>2023-11-27</t>
+        </is>
+      </c>
+      <c r="B36" s="29" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
+      <c r="C36" s="28" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D36" s="28" t="n"/>
       <c r="E36" s="28" t="n"/>
       <c r="F36" s="28" t="n"/>
@@ -21257,10 +21765,18 @@
       <c r="R36" s="28" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="28" t="n"/>
+      <c r="A37" s="28" t="inlineStr">
+        <is>
+          <t>2023-12-04</t>
+        </is>
+      </c>
       <c r="B37" s="29" t="n"/>
       <c r="C37" s="28" t="n"/>
-      <c r="D37" s="28" t="n"/>
+      <c r="D37" s="28" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E37" s="28" t="n"/>
       <c r="F37" s="28" t="n"/>
       <c r="G37" s="28" t="n"/>
@@ -23008,8 +23524,16 @@
       <c r="R34" s="28" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="28" t="n"/>
-      <c r="B35" s="29" t="n"/>
+      <c r="A35" s="28" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="B35" s="29" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
       <c r="C35" s="28" t="n"/>
       <c r="D35" s="28" t="n"/>
       <c r="E35" s="28" t="n"/>
@@ -23028,9 +23552,21 @@
       <c r="R35" s="28" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="28" t="n"/>
-      <c r="B36" s="29" t="n"/>
-      <c r="C36" s="28" t="n"/>
+      <c r="A36" s="28" t="inlineStr">
+        <is>
+          <t>2023-09-11</t>
+        </is>
+      </c>
+      <c r="B36" s="29" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
+      <c r="C36" s="28" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D36" s="28" t="n"/>
       <c r="E36" s="28" t="n"/>
       <c r="F36" s="28" t="n"/>
@@ -23048,9 +23584,21 @@
       <c r="R36" s="28" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="28" t="n"/>
-      <c r="B37" s="29" t="n"/>
-      <c r="C37" s="28" t="n"/>
+      <c r="A37" s="28" t="inlineStr">
+        <is>
+          <t>2023-09-18</t>
+        </is>
+      </c>
+      <c r="B37" s="29" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
+      <c r="C37" s="28" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D37" s="28" t="n"/>
       <c r="E37" s="28" t="n"/>
       <c r="F37" s="28" t="n"/>
@@ -23068,9 +23616,17 @@
       <c r="R37" s="28" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="28" t="n"/>
+      <c r="A38" s="28" t="inlineStr">
+        <is>
+          <t>2023-09-25</t>
+        </is>
+      </c>
       <c r="B38" s="28" t="n"/>
-      <c r="C38" s="28" t="n"/>
+      <c r="C38" s="28" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D38" s="28" t="n"/>
       <c r="E38" s="28" t="n"/>
       <c r="F38" s="28" t="n"/>
@@ -23088,9 +23644,17 @@
       <c r="R38" s="28" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="28" t="n"/>
+      <c r="A39" s="28" t="inlineStr">
+        <is>
+          <t>2023-10-02</t>
+        </is>
+      </c>
       <c r="B39" s="28" t="n"/>
-      <c r="C39" s="28" t="n"/>
+      <c r="C39" s="28" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D39" s="28" t="n"/>
       <c r="E39" s="28" t="n"/>
       <c r="F39" s="28" t="n"/>
@@ -23108,9 +23672,21 @@
       <c r="R39" s="28" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" s="28" t="n"/>
-      <c r="B40" s="28" t="n"/>
-      <c r="C40" s="28" t="n"/>
+      <c r="A40" s="28" t="inlineStr">
+        <is>
+          <t>2023-11-06</t>
+        </is>
+      </c>
+      <c r="B40" s="28" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
+      <c r="C40" s="28" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D40" s="28" t="n"/>
       <c r="E40" s="28" t="n"/>
       <c r="F40" s="28" t="n"/>
@@ -23128,9 +23704,21 @@
       <c r="R40" s="28" t="n"/>
     </row>
     <row r="41">
-      <c r="A41" s="28" t="n"/>
-      <c r="B41" s="28" t="n"/>
-      <c r="C41" s="28" t="n"/>
+      <c r="A41" s="28" t="inlineStr">
+        <is>
+          <t>2023-11-13</t>
+        </is>
+      </c>
+      <c r="B41" s="28" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
+      <c r="C41" s="28" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D41" s="28" t="n"/>
       <c r="E41" s="28" t="n"/>
       <c r="F41" s="28" t="n"/>
@@ -23148,9 +23736,17 @@
       <c r="R41" s="28" t="n"/>
     </row>
     <row r="42">
-      <c r="A42" s="28" t="n"/>
+      <c r="A42" s="28" t="inlineStr">
+        <is>
+          <t>2023-11-20</t>
+        </is>
+      </c>
       <c r="B42" s="28" t="n"/>
-      <c r="C42" s="28" t="n"/>
+      <c r="C42" s="28" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D42" s="28" t="n"/>
       <c r="E42" s="28" t="n"/>
       <c r="F42" s="28" t="n"/>
@@ -23168,7 +23764,11 @@
       <c r="R42" s="28" t="n"/>
     </row>
     <row r="43">
-      <c r="A43" s="28" t="n"/>
+      <c r="A43" s="28" t="inlineStr">
+        <is>
+          <t>2023-11-27</t>
+        </is>
+      </c>
       <c r="B43" s="28" t="n"/>
       <c r="C43" s="28" t="n"/>
       <c r="D43" s="28" t="n"/>
@@ -24799,8 +25399,16 @@
       <c r="R34" s="28" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="28" t="n"/>
-      <c r="B35" s="29" t="n"/>
+      <c r="A35" s="28" t="inlineStr">
+        <is>
+          <t>2023-09-11</t>
+        </is>
+      </c>
+      <c r="B35" s="29" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
       <c r="C35" s="28" t="n"/>
       <c r="D35" s="28" t="n"/>
       <c r="E35" s="28" t="n"/>
@@ -24819,9 +25427,21 @@
       <c r="R35" s="28" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="28" t="n"/>
-      <c r="B36" s="29" t="n"/>
-      <c r="C36" s="28" t="n"/>
+      <c r="A36" s="28" t="inlineStr">
+        <is>
+          <t>2023-09-18</t>
+        </is>
+      </c>
+      <c r="B36" s="29" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
+      <c r="C36" s="28" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D36" s="28" t="n"/>
       <c r="E36" s="28" t="n"/>
       <c r="F36" s="28" t="n"/>
@@ -24839,9 +25459,17 @@
       <c r="R36" s="28" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="28" t="n"/>
+      <c r="A37" s="28" t="inlineStr">
+        <is>
+          <t>2023-09-25</t>
+        </is>
+      </c>
       <c r="B37" s="29" t="n"/>
-      <c r="C37" s="28" t="n"/>
+      <c r="C37" s="28" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D37" s="28" t="n"/>
       <c r="E37" s="28" t="n"/>
       <c r="F37" s="28" t="n"/>
@@ -24859,9 +25487,17 @@
       <c r="R37" s="28" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="28" t="n"/>
+      <c r="A38" s="28" t="inlineStr">
+        <is>
+          <t>2023-10-02</t>
+        </is>
+      </c>
       <c r="B38" s="28" t="n"/>
-      <c r="C38" s="28" t="n"/>
+      <c r="C38" s="28" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D38" s="28" t="n"/>
       <c r="E38" s="28" t="n"/>
       <c r="F38" s="28" t="n"/>
@@ -24879,8 +25515,16 @@
       <c r="R38" s="28" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="28" t="n"/>
-      <c r="B39" s="28" t="n"/>
+      <c r="A39" s="28" t="inlineStr">
+        <is>
+          <t>2023-11-06</t>
+        </is>
+      </c>
+      <c r="B39" s="28" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
       <c r="C39" s="28" t="n"/>
       <c r="D39" s="28" t="n"/>
       <c r="E39" s="28" t="n"/>
@@ -24899,9 +25543,17 @@
       <c r="R39" s="28" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" s="28" t="n"/>
+      <c r="A40" s="28" t="inlineStr">
+        <is>
+          <t>2023-11-13</t>
+        </is>
+      </c>
       <c r="B40" s="28" t="n"/>
-      <c r="C40" s="28" t="n"/>
+      <c r="C40" s="28" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D40" s="28" t="n"/>
       <c r="E40" s="28" t="n"/>
       <c r="F40" s="28" t="n"/>
@@ -24919,9 +25571,21 @@
       <c r="R40" s="28" t="n"/>
     </row>
     <row r="41">
-      <c r="A41" s="28" t="n"/>
-      <c r="B41" s="28" t="n"/>
-      <c r="C41" s="28" t="n"/>
+      <c r="A41" s="28" t="inlineStr">
+        <is>
+          <t>2023-11-20</t>
+        </is>
+      </c>
+      <c r="B41" s="28" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
+      <c r="C41" s="28" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D41" s="28" t="n"/>
       <c r="E41" s="28" t="n"/>
       <c r="F41" s="28" t="n"/>
@@ -24939,9 +25603,17 @@
       <c r="R41" s="28" t="n"/>
     </row>
     <row r="42">
-      <c r="A42" s="28" t="n"/>
+      <c r="A42" s="28" t="inlineStr">
+        <is>
+          <t>2023-11-27</t>
+        </is>
+      </c>
       <c r="B42" s="28" t="n"/>
-      <c r="C42" s="28" t="n"/>
+      <c r="C42" s="28" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D42" s="28" t="n"/>
       <c r="E42" s="28" t="n"/>
       <c r="F42" s="28" t="n"/>
@@ -24959,9 +25631,17 @@
       <c r="R42" s="28" t="n"/>
     </row>
     <row r="43">
-      <c r="A43" s="28" t="n"/>
+      <c r="A43" s="28" t="inlineStr">
+        <is>
+          <t>2023-12-04</t>
+        </is>
+      </c>
       <c r="B43" s="28" t="n"/>
-      <c r="C43" s="28" t="n"/>
+      <c r="C43" s="28" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D43" s="28" t="n"/>
       <c r="E43" s="28" t="n"/>
       <c r="F43" s="28" t="n"/>

--- a/SAE_3_01/fichiers genere/S3BFI.xlsx
+++ b/SAE_3_01/fichiers genere/S3BFI.xlsx
@@ -13,15 +13,15 @@
     <sheet name="R3.04 Qualité de développement" sheetId="5" state="visible" r:id="rId5"/>
     <sheet name="R3.05 Programmation système" sheetId="6" state="visible" r:id="rId6"/>
     <sheet name="R3.06 Architecture des réseaux" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="R3.07 SQL dans un langage de programmation" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="R3.07 SQL dans un langage de pr" sheetId="8" state="visible" r:id="rId8"/>
     <sheet name="R3.08 Probabilités" sheetId="9" state="visible" r:id="rId9"/>
     <sheet name="R3.09 Cryptographie et sécurité" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="R3.10 Management des systèmes d'information " sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="R3.11 Droit des contrats et du numérique" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="R3.10 Management des systèmes d" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="R3.11 Droit des contrats et du " sheetId="12" state="visible" r:id="rId12"/>
     <sheet name="R3.12 Anglais" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="R3.13 Communication professionnelle" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="R3.13 Communication professionn" sheetId="14" state="visible" r:id="rId14"/>
     <sheet name="R3.14 PPP" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="R3.B.L1 Compléments cryptographie" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="R3.B.L1 Compléments cryptograph" sheetId="16" state="visible" r:id="rId16"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="191028" fullCalcOnLoad="1"/>
@@ -3277,16 +3277,8 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="inlineStr">
-        <is>
-          <t>2023-09-11</t>
-        </is>
-      </c>
-      <c r="B35" s="28" t="inlineStr">
-        <is>
-          <t>Amphi 2H</t>
-        </is>
-      </c>
+      <c r="A35" s="27" t="n"/>
+      <c r="B35" s="28" t="n"/>
       <c r="C35" s="27" t="n"/>
       <c r="D35" s="27" t="n"/>
       <c r="E35" s="27" t="n"/>
@@ -3305,21 +3297,9 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="inlineStr">
-        <is>
-          <t>2023-09-18</t>
-        </is>
-      </c>
-      <c r="B36" s="28" t="inlineStr">
-        <is>
-          <t>Amphi 2H</t>
-        </is>
-      </c>
-      <c r="C36" s="27" t="inlineStr">
-        <is>
-          <t>TD 2H</t>
-        </is>
-      </c>
+      <c r="A36" s="27" t="n"/>
+      <c r="B36" s="28" t="n"/>
+      <c r="C36" s="27" t="n"/>
       <c r="D36" s="27" t="n"/>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
@@ -3337,17 +3317,9 @@
       <c r="R36" s="27" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="27" t="inlineStr">
-        <is>
-          <t>2023-09-25</t>
-        </is>
-      </c>
+      <c r="A37" s="27" t="n"/>
       <c r="B37" s="28" t="n"/>
-      <c r="C37" s="27" t="inlineStr">
-        <is>
-          <t>TD 2H</t>
-        </is>
-      </c>
+      <c r="C37" s="27" t="n"/>
       <c r="D37" s="27" t="n"/>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
@@ -3365,17 +3337,9 @@
       <c r="R37" s="27" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="27" t="inlineStr">
-        <is>
-          <t>2023-10-02</t>
-        </is>
-      </c>
+      <c r="A38" s="27" t="n"/>
       <c r="B38" s="27" t="n"/>
-      <c r="C38" s="27" t="inlineStr">
-        <is>
-          <t>TD 2H</t>
-        </is>
-      </c>
+      <c r="C38" s="27" t="n"/>
       <c r="D38" s="27" t="n"/>
       <c r="E38" s="27" t="n"/>
       <c r="F38" s="27" t="n"/>
@@ -3393,16 +3357,8 @@
       <c r="R38" s="27" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="27" t="inlineStr">
-        <is>
-          <t>2023-11-06</t>
-        </is>
-      </c>
-      <c r="B39" s="27" t="inlineStr">
-        <is>
-          <t>Amphi 2H</t>
-        </is>
-      </c>
+      <c r="A39" s="27" t="n"/>
+      <c r="B39" s="27" t="n"/>
       <c r="C39" s="27" t="n"/>
       <c r="D39" s="27" t="n"/>
       <c r="E39" s="27" t="n"/>
@@ -3421,17 +3377,9 @@
       <c r="R39" s="27" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" s="27" t="inlineStr">
-        <is>
-          <t>2023-11-13</t>
-        </is>
-      </c>
+      <c r="A40" s="27" t="n"/>
       <c r="B40" s="27" t="n"/>
-      <c r="C40" s="27" t="inlineStr">
-        <is>
-          <t>TD 2H</t>
-        </is>
-      </c>
+      <c r="C40" s="27" t="n"/>
       <c r="D40" s="27" t="n"/>
       <c r="E40" s="27" t="n"/>
       <c r="F40" s="27" t="n"/>
@@ -3449,21 +3397,9 @@
       <c r="R40" s="27" t="n"/>
     </row>
     <row r="41">
-      <c r="A41" s="27" t="inlineStr">
-        <is>
-          <t>2023-11-20</t>
-        </is>
-      </c>
-      <c r="B41" s="27" t="inlineStr">
-        <is>
-          <t>Amphi 2H</t>
-        </is>
-      </c>
-      <c r="C41" s="27" t="inlineStr">
-        <is>
-          <t>TD 2H</t>
-        </is>
-      </c>
+      <c r="A41" s="27" t="n"/>
+      <c r="B41" s="27" t="n"/>
+      <c r="C41" s="27" t="n"/>
       <c r="D41" s="27" t="n"/>
       <c r="E41" s="27" t="n"/>
       <c r="F41" s="27" t="n"/>
@@ -3481,17 +3417,9 @@
       <c r="R41" s="27" t="n"/>
     </row>
     <row r="42">
-      <c r="A42" s="27" t="inlineStr">
-        <is>
-          <t>2023-11-27</t>
-        </is>
-      </c>
+      <c r="A42" s="27" t="n"/>
       <c r="B42" s="27" t="n"/>
-      <c r="C42" s="27" t="inlineStr">
-        <is>
-          <t>TD 2H</t>
-        </is>
-      </c>
+      <c r="C42" s="27" t="n"/>
       <c r="D42" s="27" t="n"/>
       <c r="E42" s="27" t="n"/>
       <c r="F42" s="27" t="n"/>
@@ -3509,17 +3437,9 @@
       <c r="R42" s="27" t="n"/>
     </row>
     <row r="43">
-      <c r="A43" s="27" t="inlineStr">
-        <is>
-          <t>2023-12-04</t>
-        </is>
-      </c>
+      <c r="A43" s="27" t="n"/>
       <c r="B43" s="27" t="n"/>
-      <c r="C43" s="27" t="inlineStr">
-        <is>
-          <t>TD 2H</t>
-        </is>
-      </c>
+      <c r="C43" s="27" t="n"/>
       <c r="D43" s="27" t="n"/>
       <c r="E43" s="27" t="n"/>
       <c r="F43" s="27" t="n"/>
@@ -5116,18 +5036,10 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="inlineStr">
-        <is>
-          <t>2023-09-04</t>
-        </is>
-      </c>
+      <c r="A35" s="27" t="n"/>
       <c r="B35" s="28" t="n"/>
       <c r="C35" s="27" t="n"/>
-      <c r="D35" s="27" t="inlineStr">
-        <is>
-          <t>TP 2H</t>
-        </is>
-      </c>
+      <c r="D35" s="27" t="n"/>
       <c r="E35" s="27" t="n"/>
       <c r="F35" s="27" t="n"/>
       <c r="G35" s="27" t="n"/>
@@ -5144,21 +5056,9 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="inlineStr">
-        <is>
-          <t>2023-09-11</t>
-        </is>
-      </c>
-      <c r="B36" s="28" t="inlineStr">
-        <is>
-          <t>Amphi 2H</t>
-        </is>
-      </c>
-      <c r="C36" s="27" t="inlineStr">
-        <is>
-          <t>TD 2H</t>
-        </is>
-      </c>
+      <c r="A36" s="27" t="n"/>
+      <c r="B36" s="28" t="n"/>
+      <c r="C36" s="27" t="n"/>
       <c r="D36" s="27" t="n"/>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
@@ -5176,21 +5076,9 @@
       <c r="R36" s="27" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="27" t="inlineStr">
-        <is>
-          <t>2023-09-18</t>
-        </is>
-      </c>
-      <c r="B37" s="28" t="inlineStr">
-        <is>
-          <t>Amphi 2H</t>
-        </is>
-      </c>
-      <c r="C37" s="27" t="inlineStr">
-        <is>
-          <t>TD 2H</t>
-        </is>
-      </c>
+      <c r="A37" s="27" t="n"/>
+      <c r="B37" s="28" t="n"/>
+      <c r="C37" s="27" t="n"/>
       <c r="D37" s="27" t="n"/>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
@@ -5208,22 +5096,10 @@
       <c r="R37" s="27" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="27" t="inlineStr">
-        <is>
-          <t>2023-09-25</t>
-        </is>
-      </c>
+      <c r="A38" s="27" t="n"/>
       <c r="B38" s="27" t="n"/>
-      <c r="C38" s="27" t="inlineStr">
-        <is>
-          <t>TD 2H</t>
-        </is>
-      </c>
-      <c r="D38" s="27" t="inlineStr">
-        <is>
-          <t>TP 2H</t>
-        </is>
-      </c>
+      <c r="C38" s="27" t="n"/>
+      <c r="D38" s="27" t="n"/>
       <c r="E38" s="27" t="n"/>
       <c r="F38" s="27" t="n"/>
       <c r="G38" s="27" t="n"/>
@@ -5240,17 +5116,9 @@
       <c r="R38" s="27" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="27" t="inlineStr">
-        <is>
-          <t>2023-10-02</t>
-        </is>
-      </c>
+      <c r="A39" s="27" t="n"/>
       <c r="B39" s="27" t="n"/>
-      <c r="C39" s="27" t="inlineStr">
-        <is>
-          <t>TD 4H</t>
-        </is>
-      </c>
+      <c r="C39" s="27" t="n"/>
       <c r="D39" s="27" t="n"/>
       <c r="E39" s="27" t="n"/>
       <c r="F39" s="27" t="n"/>
@@ -5268,21 +5136,9 @@
       <c r="R39" s="27" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" s="27" t="inlineStr">
-        <is>
-          <t>2023-11-13</t>
-        </is>
-      </c>
-      <c r="B40" s="27" t="inlineStr">
-        <is>
-          <t>Amphi 2H</t>
-        </is>
-      </c>
-      <c r="C40" s="27" t="inlineStr">
-        <is>
-          <t>TD 2H</t>
-        </is>
-      </c>
+      <c r="A40" s="27" t="n"/>
+      <c r="B40" s="27" t="n"/>
+      <c r="C40" s="27" t="n"/>
       <c r="D40" s="27" t="n"/>
       <c r="E40" s="27" t="n"/>
       <c r="F40" s="27" t="n"/>
@@ -5300,18 +5156,10 @@
       <c r="R40" s="27" t="n"/>
     </row>
     <row r="41">
-      <c r="A41" s="27" t="inlineStr">
-        <is>
-          <t>2023-11-20</t>
-        </is>
-      </c>
+      <c r="A41" s="27" t="n"/>
       <c r="B41" s="27" t="n"/>
       <c r="C41" s="27" t="n"/>
-      <c r="D41" s="27" t="inlineStr">
-        <is>
-          <t>TP 2H</t>
-        </is>
-      </c>
+      <c r="D41" s="27" t="n"/>
       <c r="E41" s="27" t="n"/>
       <c r="F41" s="27" t="n"/>
       <c r="G41" s="27" t="n"/>
@@ -5328,11 +5176,7 @@
       <c r="R41" s="27" t="n"/>
     </row>
     <row r="42">
-      <c r="A42" s="27" t="inlineStr">
-        <is>
-          <t>2023-11-27</t>
-        </is>
-      </c>
+      <c r="A42" s="27" t="n"/>
       <c r="B42" s="27" t="n"/>
       <c r="C42" s="27" t="n"/>
       <c r="D42" s="27" t="n"/>
@@ -6951,16 +6795,8 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="inlineStr">
-        <is>
-          <t>2023-09-25</t>
-        </is>
-      </c>
-      <c r="B35" s="28" t="inlineStr">
-        <is>
-          <t>Amphi 2H</t>
-        </is>
-      </c>
+      <c r="A35" s="27" t="n"/>
+      <c r="B35" s="28" t="n"/>
       <c r="C35" s="27" t="n"/>
       <c r="D35" s="27" t="n"/>
       <c r="E35" s="27" t="n"/>
@@ -6979,17 +6815,9 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="inlineStr">
-        <is>
-          <t>2023-10-02</t>
-        </is>
-      </c>
+      <c r="A36" s="27" t="n"/>
       <c r="B36" s="28" t="n"/>
-      <c r="C36" s="27" t="inlineStr">
-        <is>
-          <t>TD 2H</t>
-        </is>
-      </c>
+      <c r="C36" s="27" t="n"/>
       <c r="D36" s="27" t="n"/>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
@@ -7007,17 +6835,9 @@
       <c r="R36" s="27" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="27" t="inlineStr">
-        <is>
-          <t>2023-11-06</t>
-        </is>
-      </c>
+      <c r="A37" s="27" t="n"/>
       <c r="B37" s="28" t="n"/>
-      <c r="C37" s="27" t="inlineStr">
-        <is>
-          <t>TD 2H</t>
-        </is>
-      </c>
+      <c r="C37" s="27" t="n"/>
       <c r="D37" s="27" t="n"/>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
@@ -7035,21 +6855,9 @@
       <c r="R37" s="27" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="27" t="inlineStr">
-        <is>
-          <t>2023-11-13</t>
-        </is>
-      </c>
-      <c r="B38" s="27" t="inlineStr">
-        <is>
-          <t>Amphi 2H</t>
-        </is>
-      </c>
-      <c r="C38" s="27" t="inlineStr">
-        <is>
-          <t>TD 2H</t>
-        </is>
-      </c>
+      <c r="A38" s="27" t="n"/>
+      <c r="B38" s="27" t="n"/>
+      <c r="C38" s="27" t="n"/>
       <c r="D38" s="27" t="n"/>
       <c r="E38" s="27" t="n"/>
       <c r="F38" s="27" t="n"/>
@@ -7067,17 +6875,9 @@
       <c r="R38" s="27" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="27" t="inlineStr">
-        <is>
-          <t>2023-11-20</t>
-        </is>
-      </c>
+      <c r="A39" s="27" t="n"/>
       <c r="B39" s="27" t="n"/>
-      <c r="C39" s="27" t="inlineStr">
-        <is>
-          <t>TD 4H</t>
-        </is>
-      </c>
+      <c r="C39" s="27" t="n"/>
       <c r="D39" s="27" t="n"/>
       <c r="E39" s="27" t="n"/>
       <c r="F39" s="27" t="n"/>
@@ -7095,17 +6895,9 @@
       <c r="R39" s="27" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" s="27" t="inlineStr">
-        <is>
-          <t>2023-11-27</t>
-        </is>
-      </c>
+      <c r="A40" s="27" t="n"/>
       <c r="B40" s="27" t="n"/>
-      <c r="C40" s="27" t="inlineStr">
-        <is>
-          <t>TD 4H</t>
-        </is>
-      </c>
+      <c r="C40" s="27" t="n"/>
       <c r="D40" s="27" t="n"/>
       <c r="E40" s="27" t="n"/>
       <c r="F40" s="27" t="n"/>
@@ -7123,17 +6915,9 @@
       <c r="R40" s="27" t="n"/>
     </row>
     <row r="41">
-      <c r="A41" s="27" t="inlineStr">
-        <is>
-          <t>2023-12-04</t>
-        </is>
-      </c>
+      <c r="A41" s="27" t="n"/>
       <c r="B41" s="27" t="n"/>
-      <c r="C41" s="27" t="inlineStr">
-        <is>
-          <t>TD 4H</t>
-        </is>
-      </c>
+      <c r="C41" s="27" t="n"/>
       <c r="D41" s="27" t="n"/>
       <c r="E41" s="27" t="n"/>
       <c r="F41" s="27" t="n"/>
@@ -8770,18 +8554,10 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="inlineStr">
-        <is>
-          <t>2023-09-18</t>
-        </is>
-      </c>
+      <c r="A35" s="27" t="n"/>
       <c r="B35" s="28" t="n"/>
       <c r="C35" s="27" t="n"/>
-      <c r="D35" s="27" t="inlineStr">
-        <is>
-          <t>TP 2H</t>
-        </is>
-      </c>
+      <c r="D35" s="27" t="n"/>
       <c r="E35" s="27" t="n"/>
       <c r="F35" s="27" t="n"/>
       <c r="G35" s="27" t="n"/>
@@ -8798,18 +8574,10 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="inlineStr">
-        <is>
-          <t>2023-09-25</t>
-        </is>
-      </c>
+      <c r="A36" s="27" t="n"/>
       <c r="B36" s="28" t="n"/>
       <c r="C36" s="27" t="n"/>
-      <c r="D36" s="27" t="inlineStr">
-        <is>
-          <t>TP 2H</t>
-        </is>
-      </c>
+      <c r="D36" s="27" t="n"/>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
       <c r="G36" s="27" t="n"/>
@@ -8826,18 +8594,10 @@
       <c r="R36" s="27" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="27" t="inlineStr">
-        <is>
-          <t>2023-10-02</t>
-        </is>
-      </c>
+      <c r="A37" s="27" t="n"/>
       <c r="B37" s="28" t="n"/>
       <c r="C37" s="27" t="n"/>
-      <c r="D37" s="27" t="inlineStr">
-        <is>
-          <t>TP 2H</t>
-        </is>
-      </c>
+      <c r="D37" s="27" t="n"/>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
       <c r="G37" s="27" t="n"/>
@@ -8854,18 +8614,10 @@
       <c r="R37" s="27" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="27" t="inlineStr">
-        <is>
-          <t>2023-11-13</t>
-        </is>
-      </c>
+      <c r="A38" s="27" t="n"/>
       <c r="B38" s="27" t="n"/>
       <c r="C38" s="27" t="n"/>
-      <c r="D38" s="27" t="inlineStr">
-        <is>
-          <t>TP 2H</t>
-        </is>
-      </c>
+      <c r="D38" s="27" t="n"/>
       <c r="E38" s="27" t="n"/>
       <c r="F38" s="27" t="n"/>
       <c r="G38" s="27" t="n"/>
@@ -8882,18 +8634,10 @@
       <c r="R38" s="27" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="27" t="inlineStr">
-        <is>
-          <t>2023-11-20</t>
-        </is>
-      </c>
+      <c r="A39" s="27" t="n"/>
       <c r="B39" s="27" t="n"/>
       <c r="C39" s="27" t="n"/>
-      <c r="D39" s="27" t="inlineStr">
-        <is>
-          <t>TP 2H</t>
-        </is>
-      </c>
+      <c r="D39" s="27" t="n"/>
       <c r="E39" s="27" t="n"/>
       <c r="F39" s="27" t="n"/>
       <c r="G39" s="27" t="n"/>
@@ -8910,18 +8654,10 @@
       <c r="R39" s="27" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" s="27" t="inlineStr">
-        <is>
-          <t>2023-11-27</t>
-        </is>
-      </c>
+      <c r="A40" s="27" t="n"/>
       <c r="B40" s="27" t="n"/>
       <c r="C40" s="27" t="n"/>
-      <c r="D40" s="27" t="inlineStr">
-        <is>
-          <t>TP 2H</t>
-        </is>
-      </c>
+      <c r="D40" s="27" t="n"/>
       <c r="E40" s="27" t="n"/>
       <c r="F40" s="27" t="n"/>
       <c r="G40" s="27" t="n"/>
@@ -8938,18 +8674,10 @@
       <c r="R40" s="27" t="n"/>
     </row>
     <row r="41">
-      <c r="A41" s="27" t="inlineStr">
-        <is>
-          <t>2023-12-11</t>
-        </is>
-      </c>
+      <c r="A41" s="27" t="n"/>
       <c r="B41" s="27" t="n"/>
       <c r="C41" s="27" t="n"/>
-      <c r="D41" s="27" t="inlineStr">
-        <is>
-          <t>TP 2H</t>
-        </is>
-      </c>
+      <c r="D41" s="27" t="n"/>
       <c r="E41" s="27" t="n"/>
       <c r="F41" s="27" t="n"/>
       <c r="G41" s="27" t="n"/>
@@ -8966,18 +8694,10 @@
       <c r="R41" s="27" t="n"/>
     </row>
     <row r="42">
-      <c r="A42" s="27" t="inlineStr">
-        <is>
-          <t>2023-12-18</t>
-        </is>
-      </c>
+      <c r="A42" s="27" t="n"/>
       <c r="B42" s="27" t="n"/>
       <c r="C42" s="27" t="n"/>
-      <c r="D42" s="27" t="inlineStr">
-        <is>
-          <t>TP 2H</t>
-        </is>
-      </c>
+      <c r="D42" s="27" t="n"/>
       <c r="E42" s="27" t="n"/>
       <c r="F42" s="27" t="n"/>
       <c r="G42" s="27" t="n"/>
@@ -8994,18 +8714,10 @@
       <c r="R42" s="27" t="n"/>
     </row>
     <row r="43">
-      <c r="A43" s="27" t="inlineStr">
-        <is>
-          <t>2024-01-08</t>
-        </is>
-      </c>
+      <c r="A43" s="27" t="n"/>
       <c r="B43" s="27" t="n"/>
       <c r="C43" s="27" t="n"/>
-      <c r="D43" s="27" t="inlineStr">
-        <is>
-          <t>TP 2H</t>
-        </is>
-      </c>
+      <c r="D43" s="27" t="n"/>
       <c r="E43" s="27" t="n"/>
       <c r="F43" s="27" t="n"/>
       <c r="G43" s="27" t="n"/>
@@ -9022,18 +8734,10 @@
       <c r="R43" s="27" t="n"/>
     </row>
     <row r="44">
-      <c r="A44" s="27" t="inlineStr">
-        <is>
-          <t>2024-01-15</t>
-        </is>
-      </c>
+      <c r="A44" s="27" t="n"/>
       <c r="B44" s="27" t="n"/>
       <c r="C44" s="27" t="n"/>
-      <c r="D44" s="27" t="inlineStr">
-        <is>
-          <t>TP 2H</t>
-        </is>
-      </c>
+      <c r="D44" s="27" t="n"/>
       <c r="E44" s="27" t="n"/>
       <c r="F44" s="27" t="n"/>
       <c r="G44" s="27" t="n"/>
@@ -10609,16 +10313,8 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="inlineStr">
-        <is>
-          <t>2023-09-25</t>
-        </is>
-      </c>
-      <c r="B35" s="28" t="inlineStr">
-        <is>
-          <t>Amphi 2H</t>
-        </is>
-      </c>
+      <c r="A35" s="27" t="n"/>
+      <c r="B35" s="28" t="n"/>
       <c r="C35" s="27" t="n"/>
       <c r="D35" s="27" t="n"/>
       <c r="E35" s="27" t="n"/>
@@ -10637,16 +10333,8 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="inlineStr">
-        <is>
-          <t>2023-10-02</t>
-        </is>
-      </c>
-      <c r="B36" s="28" t="inlineStr">
-        <is>
-          <t>Amphi 2H</t>
-        </is>
-      </c>
+      <c r="A36" s="27" t="n"/>
+      <c r="B36" s="28" t="n"/>
       <c r="C36" s="27" t="n"/>
       <c r="D36" s="27" t="n"/>
       <c r="E36" s="27" t="n"/>
@@ -10665,21 +10353,9 @@
       <c r="R36" s="27" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="27" t="inlineStr">
-        <is>
-          <t>2023-11-06</t>
-        </is>
-      </c>
-      <c r="B37" s="28" t="inlineStr">
-        <is>
-          <t>Amphi 2H</t>
-        </is>
-      </c>
-      <c r="C37" s="27" t="inlineStr">
-        <is>
-          <t>TD 4H</t>
-        </is>
-      </c>
+      <c r="A37" s="27" t="n"/>
+      <c r="B37" s="28" t="n"/>
+      <c r="C37" s="27" t="n"/>
       <c r="D37" s="27" t="n"/>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
@@ -10697,17 +10373,9 @@
       <c r="R37" s="27" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="27" t="inlineStr">
-        <is>
-          <t>2023-11-13</t>
-        </is>
-      </c>
+      <c r="A38" s="27" t="n"/>
       <c r="B38" s="27" t="n"/>
-      <c r="C38" s="27" t="inlineStr">
-        <is>
-          <t>TD 4H</t>
-        </is>
-      </c>
+      <c r="C38" s="27" t="n"/>
       <c r="D38" s="27" t="n"/>
       <c r="E38" s="27" t="n"/>
       <c r="F38" s="27" t="n"/>
@@ -10725,18 +10393,10 @@
       <c r="R38" s="27" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="27" t="inlineStr">
-        <is>
-          <t>2023-11-20</t>
-        </is>
-      </c>
+      <c r="A39" s="27" t="n"/>
       <c r="B39" s="27" t="n"/>
       <c r="C39" s="27" t="n"/>
-      <c r="D39" s="27" t="inlineStr">
-        <is>
-          <t>TP 4H</t>
-        </is>
-      </c>
+      <c r="D39" s="27" t="n"/>
       <c r="E39" s="27" t="n"/>
       <c r="F39" s="27" t="n"/>
       <c r="G39" s="27" t="n"/>
@@ -10753,18 +10413,10 @@
       <c r="R39" s="27" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" s="27" t="inlineStr">
-        <is>
-          <t>2023-11-27</t>
-        </is>
-      </c>
+      <c r="A40" s="27" t="n"/>
       <c r="B40" s="27" t="n"/>
       <c r="C40" s="27" t="n"/>
-      <c r="D40" s="27" t="inlineStr">
-        <is>
-          <t>TP 4H</t>
-        </is>
-      </c>
+      <c r="D40" s="27" t="n"/>
       <c r="E40" s="27" t="n"/>
       <c r="F40" s="27" t="n"/>
       <c r="G40" s="27" t="n"/>
@@ -12420,17 +12072,9 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="inlineStr">
-        <is>
-          <t>2023-09-11</t>
-        </is>
-      </c>
+      <c r="A35" s="27" t="n"/>
       <c r="B35" s="28" t="n"/>
-      <c r="C35" s="27" t="inlineStr">
-        <is>
-          <t>TD 2H</t>
-        </is>
-      </c>
+      <c r="C35" s="27" t="n"/>
       <c r="D35" s="27" t="n"/>
       <c r="E35" s="27" t="n"/>
       <c r="F35" s="27" t="n"/>
@@ -12448,18 +12092,10 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="inlineStr">
-        <is>
-          <t>2023-09-18</t>
-        </is>
-      </c>
+      <c r="A36" s="27" t="n"/>
       <c r="B36" s="28" t="n"/>
       <c r="C36" s="27" t="n"/>
-      <c r="D36" s="27" t="inlineStr">
-        <is>
-          <t>TP 4H</t>
-        </is>
-      </c>
+      <c r="D36" s="27" t="n"/>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
       <c r="G36" s="27" t="n"/>
@@ -12476,17 +12112,9 @@
       <c r="R36" s="27" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="27" t="inlineStr">
-        <is>
-          <t>2023-09-25</t>
-        </is>
-      </c>
+      <c r="A37" s="27" t="n"/>
       <c r="B37" s="28" t="n"/>
-      <c r="C37" s="27" t="inlineStr">
-        <is>
-          <t>TD 4H</t>
-        </is>
-      </c>
+      <c r="C37" s="27" t="n"/>
       <c r="D37" s="27" t="n"/>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
@@ -14203,21 +13831,9 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="inlineStr">
-        <is>
-          <t>2023-12-11</t>
-        </is>
-      </c>
-      <c r="B35" s="28" t="inlineStr">
-        <is>
-          <t>Amphi 2H</t>
-        </is>
-      </c>
-      <c r="C35" s="27" t="inlineStr">
-        <is>
-          <t>TD 2H</t>
-        </is>
-      </c>
+      <c r="A35" s="27" t="n"/>
+      <c r="B35" s="28" t="n"/>
+      <c r="C35" s="27" t="n"/>
       <c r="D35" s="27" t="n"/>
       <c r="E35" s="27" t="n"/>
       <c r="F35" s="27" t="n"/>
@@ -14235,21 +13851,9 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="inlineStr">
-        <is>
-          <t>2023-12-18</t>
-        </is>
-      </c>
-      <c r="B36" s="28" t="inlineStr">
-        <is>
-          <t>Amphi 2H</t>
-        </is>
-      </c>
-      <c r="C36" s="27" t="inlineStr">
-        <is>
-          <t>TD 4H</t>
-        </is>
-      </c>
+      <c r="A36" s="27" t="n"/>
+      <c r="B36" s="28" t="n"/>
+      <c r="C36" s="27" t="n"/>
       <c r="D36" s="27" t="n"/>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
@@ -14267,17 +13871,9 @@
       <c r="R36" s="27" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="27" t="inlineStr">
-        <is>
-          <t>2024-01-08</t>
-        </is>
-      </c>
+      <c r="A37" s="27" t="n"/>
       <c r="B37" s="28" t="n"/>
-      <c r="C37" s="27" t="inlineStr">
-        <is>
-          <t>TD 2H</t>
-        </is>
-      </c>
+      <c r="C37" s="27" t="n"/>
       <c r="D37" s="27" t="n"/>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
@@ -15994,18 +15590,10 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="inlineStr">
-        <is>
-          <t>2023-09-04</t>
-        </is>
-      </c>
+      <c r="A35" s="27" t="n"/>
       <c r="B35" s="28" t="n"/>
       <c r="C35" s="27" t="n"/>
-      <c r="D35" s="27" t="inlineStr">
-        <is>
-          <t>TP 4H</t>
-        </is>
-      </c>
+      <c r="D35" s="27" t="n"/>
       <c r="E35" s="27" t="n"/>
       <c r="F35" s="27" t="n"/>
       <c r="G35" s="27" t="n"/>
@@ -16022,18 +15610,10 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="inlineStr">
-        <is>
-          <t>2023-09-11</t>
-        </is>
-      </c>
+      <c r="A36" s="27" t="n"/>
       <c r="B36" s="28" t="n"/>
       <c r="C36" s="27" t="n"/>
-      <c r="D36" s="27" t="inlineStr">
-        <is>
-          <t>TP 4H</t>
-        </is>
-      </c>
+      <c r="D36" s="27" t="n"/>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
       <c r="G36" s="27" t="n"/>
@@ -16050,18 +15630,10 @@
       <c r="R36" s="27" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="27" t="inlineStr">
-        <is>
-          <t>2023-09-18</t>
-        </is>
-      </c>
+      <c r="A37" s="27" t="n"/>
       <c r="B37" s="28" t="n"/>
       <c r="C37" s="27" t="n"/>
-      <c r="D37" s="27" t="inlineStr">
-        <is>
-          <t>TP 4H</t>
-        </is>
-      </c>
+      <c r="D37" s="27" t="n"/>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
       <c r="G37" s="27" t="n"/>
@@ -16078,18 +15650,10 @@
       <c r="R37" s="27" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="27" t="inlineStr">
-        <is>
-          <t>2023-09-25</t>
-        </is>
-      </c>
+      <c r="A38" s="27" t="n"/>
       <c r="B38" s="27" t="n"/>
       <c r="C38" s="27" t="n"/>
-      <c r="D38" s="27" t="inlineStr">
-        <is>
-          <t>TP 4H</t>
-        </is>
-      </c>
+      <c r="D38" s="27" t="n"/>
       <c r="E38" s="27" t="n"/>
       <c r="F38" s="27" t="n"/>
       <c r="G38" s="27" t="n"/>
@@ -16106,11 +15670,7 @@
       <c r="R38" s="27" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="27" t="inlineStr">
-        <is>
-          <t>2023-11-06</t>
-        </is>
-      </c>
+      <c r="A39" s="27" t="n"/>
       <c r="B39" s="27" t="n"/>
       <c r="C39" s="27" t="n"/>
       <c r="D39" s="27" t="n"/>
@@ -17789,16 +17349,8 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="inlineStr">
-        <is>
-          <t>2023-09-18</t>
-        </is>
-      </c>
-      <c r="B35" s="28" t="inlineStr">
-        <is>
-          <t>Amphi 2H</t>
-        </is>
-      </c>
+      <c r="A35" s="27" t="n"/>
+      <c r="B35" s="28" t="n"/>
       <c r="C35" s="27" t="n"/>
       <c r="D35" s="27" t="n"/>
       <c r="E35" s="27" t="n"/>
@@ -17817,21 +17369,9 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="inlineStr">
-        <is>
-          <t>2023-09-25</t>
-        </is>
-      </c>
-      <c r="B36" s="28" t="inlineStr">
-        <is>
-          <t>Amphi 2H</t>
-        </is>
-      </c>
-      <c r="C36" s="27" t="inlineStr">
-        <is>
-          <t>TD 4H</t>
-        </is>
-      </c>
+      <c r="A36" s="27" t="n"/>
+      <c r="B36" s="28" t="n"/>
+      <c r="C36" s="27" t="n"/>
       <c r="D36" s="27" t="n"/>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
@@ -17849,17 +17389,9 @@
       <c r="R36" s="27" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="27" t="inlineStr">
-        <is>
-          <t>2023-10-02</t>
-        </is>
-      </c>
+      <c r="A37" s="27" t="n"/>
       <c r="B37" s="28" t="n"/>
-      <c r="C37" s="27" t="inlineStr">
-        <is>
-          <t>TD 4H</t>
-        </is>
-      </c>
+      <c r="C37" s="27" t="n"/>
       <c r="D37" s="27" t="n"/>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
@@ -17877,18 +17409,10 @@
       <c r="R37" s="27" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="27" t="inlineStr">
-        <is>
-          <t>2023-11-13</t>
-        </is>
-      </c>
+      <c r="A38" s="27" t="n"/>
       <c r="B38" s="27" t="n"/>
       <c r="C38" s="27" t="n"/>
-      <c r="D38" s="27" t="inlineStr">
-        <is>
-          <t>TP 2H</t>
-        </is>
-      </c>
+      <c r="D38" s="27" t="n"/>
       <c r="E38" s="27" t="n"/>
       <c r="F38" s="27" t="n"/>
       <c r="G38" s="27" t="n"/>
@@ -17905,18 +17429,10 @@
       <c r="R38" s="27" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="27" t="inlineStr">
-        <is>
-          <t>2023-11-20</t>
-        </is>
-      </c>
+      <c r="A39" s="27" t="n"/>
       <c r="B39" s="27" t="n"/>
       <c r="C39" s="27" t="n"/>
-      <c r="D39" s="27" t="inlineStr">
-        <is>
-          <t>TP 4H</t>
-        </is>
-      </c>
+      <c r="D39" s="27" t="n"/>
       <c r="E39" s="27" t="n"/>
       <c r="F39" s="27" t="n"/>
       <c r="G39" s="27" t="n"/>
@@ -19592,17 +19108,9 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="inlineStr">
-        <is>
-          <t>2023-09-18</t>
-        </is>
-      </c>
+      <c r="A35" s="27" t="n"/>
       <c r="B35" s="28" t="n"/>
-      <c r="C35" s="27" t="inlineStr">
-        <is>
-          <t>TD 4H</t>
-        </is>
-      </c>
+      <c r="C35" s="27" t="n"/>
       <c r="D35" s="27" t="n"/>
       <c r="E35" s="27" t="n"/>
       <c r="F35" s="27" t="n"/>
@@ -19620,18 +19128,10 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="inlineStr">
-        <is>
-          <t>2023-11-06</t>
-        </is>
-      </c>
+      <c r="A36" s="27" t="n"/>
       <c r="B36" s="28" t="n"/>
       <c r="C36" s="27" t="n"/>
-      <c r="D36" s="27" t="inlineStr">
-        <is>
-          <t>TP 4H</t>
-        </is>
-      </c>
+      <c r="D36" s="27" t="n"/>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
       <c r="G36" s="27" t="n"/>
@@ -19648,18 +19148,10 @@
       <c r="R36" s="27" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="27" t="inlineStr">
-        <is>
-          <t>2023-11-13</t>
-        </is>
-      </c>
+      <c r="A37" s="27" t="n"/>
       <c r="B37" s="28" t="n"/>
       <c r="C37" s="27" t="n"/>
-      <c r="D37" s="27" t="inlineStr">
-        <is>
-          <t>TP 2H</t>
-        </is>
-      </c>
+      <c r="D37" s="27" t="n"/>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
       <c r="G37" s="27" t="n"/>
@@ -19676,11 +19168,7 @@
       <c r="R37" s="27" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="27" t="inlineStr">
-        <is>
-          <t>2023-11-27</t>
-        </is>
-      </c>
+      <c r="A38" s="27" t="n"/>
       <c r="B38" s="27" t="n"/>
       <c r="C38" s="27" t="n"/>
       <c r="D38" s="27" t="n"/>
@@ -21379,16 +20867,8 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="inlineStr">
-        <is>
-          <t>2023-09-25</t>
-        </is>
-      </c>
-      <c r="B35" s="28" t="inlineStr">
-        <is>
-          <t>Amphi 2H</t>
-        </is>
-      </c>
+      <c r="A35" s="27" t="n"/>
+      <c r="B35" s="28" t="n"/>
       <c r="C35" s="27" t="n"/>
       <c r="D35" s="27" t="n"/>
       <c r="E35" s="27" t="n"/>
@@ -21407,21 +20887,9 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="inlineStr">
-        <is>
-          <t>2023-10-02</t>
-        </is>
-      </c>
-      <c r="B36" s="28" t="inlineStr">
-        <is>
-          <t>Amphi 2H</t>
-        </is>
-      </c>
-      <c r="C36" s="27" t="inlineStr">
-        <is>
-          <t>TD 4H</t>
-        </is>
-      </c>
+      <c r="A36" s="27" t="n"/>
+      <c r="B36" s="28" t="n"/>
+      <c r="C36" s="27" t="n"/>
       <c r="D36" s="27" t="n"/>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
@@ -21439,21 +20907,9 @@
       <c r="R36" s="27" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="27" t="inlineStr">
-        <is>
-          <t>2023-11-06</t>
-        </is>
-      </c>
-      <c r="B37" s="28" t="inlineStr">
-        <is>
-          <t>Amphi 2H</t>
-        </is>
-      </c>
-      <c r="C37" s="27" t="inlineStr">
-        <is>
-          <t>TD 4H</t>
-        </is>
-      </c>
+      <c r="A37" s="27" t="n"/>
+      <c r="B37" s="28" t="n"/>
+      <c r="C37" s="27" t="n"/>
       <c r="D37" s="27" t="n"/>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
@@ -21471,18 +20927,10 @@
       <c r="R37" s="27" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="27" t="inlineStr">
-        <is>
-          <t>2023-11-13</t>
-        </is>
-      </c>
+      <c r="A38" s="27" t="n"/>
       <c r="B38" s="27" t="n"/>
       <c r="C38" s="27" t="n"/>
-      <c r="D38" s="27" t="inlineStr">
-        <is>
-          <t>TP 4H</t>
-        </is>
-      </c>
+      <c r="D38" s="27" t="n"/>
       <c r="E38" s="27" t="n"/>
       <c r="F38" s="27" t="n"/>
       <c r="G38" s="27" t="n"/>
@@ -21499,18 +20947,10 @@
       <c r="R38" s="27" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="27" t="inlineStr">
-        <is>
-          <t>2023-11-20</t>
-        </is>
-      </c>
+      <c r="A39" s="27" t="n"/>
       <c r="B39" s="27" t="n"/>
       <c r="C39" s="27" t="n"/>
-      <c r="D39" s="27" t="inlineStr">
-        <is>
-          <t>TP 4H</t>
-        </is>
-      </c>
+      <c r="D39" s="27" t="n"/>
       <c r="E39" s="27" t="n"/>
       <c r="F39" s="27" t="n"/>
       <c r="G39" s="27" t="n"/>
@@ -21527,18 +20967,10 @@
       <c r="R39" s="27" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" s="27" t="inlineStr">
-        <is>
-          <t>2023-11-27</t>
-        </is>
-      </c>
+      <c r="A40" s="27" t="n"/>
       <c r="B40" s="27" t="n"/>
       <c r="C40" s="27" t="n"/>
-      <c r="D40" s="27" t="inlineStr">
-        <is>
-          <t>TP 4H</t>
-        </is>
-      </c>
+      <c r="D40" s="27" t="n"/>
       <c r="E40" s="27" t="n"/>
       <c r="F40" s="27" t="n"/>
       <c r="G40" s="27" t="n"/>
@@ -21555,18 +20987,10 @@
       <c r="R40" s="27" t="n"/>
     </row>
     <row r="41">
-      <c r="A41" s="27" t="inlineStr">
-        <is>
-          <t>2023-12-04</t>
-        </is>
-      </c>
+      <c r="A41" s="27" t="n"/>
       <c r="B41" s="27" t="n"/>
       <c r="C41" s="27" t="n"/>
-      <c r="D41" s="27" t="inlineStr">
-        <is>
-          <t>TP 4H</t>
-        </is>
-      </c>
+      <c r="D41" s="27" t="n"/>
       <c r="E41" s="27" t="n"/>
       <c r="F41" s="27" t="n"/>
       <c r="G41" s="27" t="n"/>
@@ -23202,21 +22626,9 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="inlineStr">
-        <is>
-          <t>2023-09-04</t>
-        </is>
-      </c>
-      <c r="B35" s="28" t="inlineStr">
-        <is>
-          <t>Amphi 2H</t>
-        </is>
-      </c>
-      <c r="C35" s="27" t="inlineStr">
-        <is>
-          <t>TD 2H</t>
-        </is>
-      </c>
+      <c r="A35" s="27" t="n"/>
+      <c r="B35" s="28" t="n"/>
+      <c r="C35" s="27" t="n"/>
       <c r="D35" s="27" t="n"/>
       <c r="E35" s="27" t="n"/>
       <c r="F35" s="27" t="n"/>
@@ -23234,18 +22646,10 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="inlineStr">
-        <is>
-          <t>2023-09-11</t>
-        </is>
-      </c>
+      <c r="A36" s="27" t="n"/>
       <c r="B36" s="28" t="n"/>
       <c r="C36" s="27" t="n"/>
-      <c r="D36" s="27" t="inlineStr">
-        <is>
-          <t>TP 4H</t>
-        </is>
-      </c>
+      <c r="D36" s="27" t="n"/>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
       <c r="G36" s="27" t="n"/>
@@ -23262,22 +22666,10 @@
       <c r="R36" s="27" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="27" t="inlineStr">
-        <is>
-          <t>2023-11-06</t>
-        </is>
-      </c>
-      <c r="B37" s="28" t="inlineStr">
-        <is>
-          <t>Amphi 2H</t>
-        </is>
-      </c>
+      <c r="A37" s="27" t="n"/>
+      <c r="B37" s="28" t="n"/>
       <c r="C37" s="27" t="n"/>
-      <c r="D37" s="27" t="inlineStr">
-        <is>
-          <t>TP 4H</t>
-        </is>
-      </c>
+      <c r="D37" s="27" t="n"/>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
       <c r="G37" s="27" t="n"/>
@@ -23294,21 +22686,9 @@
       <c r="R37" s="27" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="27" t="inlineStr">
-        <is>
-          <t>2023-11-13</t>
-        </is>
-      </c>
-      <c r="B38" s="27" t="inlineStr">
-        <is>
-          <t>Amphi 2H</t>
-        </is>
-      </c>
-      <c r="C38" s="27" t="inlineStr">
-        <is>
-          <t>TD 4H</t>
-        </is>
-      </c>
+      <c r="A38" s="27" t="n"/>
+      <c r="B38" s="27" t="n"/>
+      <c r="C38" s="27" t="n"/>
       <c r="D38" s="27" t="n"/>
       <c r="E38" s="27" t="n"/>
       <c r="F38" s="27" t="n"/>
@@ -23326,16 +22706,8 @@
       <c r="R38" s="27" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="27" t="inlineStr">
-        <is>
-          <t>2023-11-20</t>
-        </is>
-      </c>
-      <c r="B39" s="27" t="inlineStr">
-        <is>
-          <t>Amphi 2H</t>
-        </is>
-      </c>
+      <c r="A39" s="27" t="n"/>
+      <c r="B39" s="27" t="n"/>
       <c r="C39" s="27" t="n"/>
       <c r="D39" s="27" t="n"/>
       <c r="E39" s="27" t="n"/>
@@ -23354,21 +22726,9 @@
       <c r="R39" s="27" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" s="27" t="inlineStr">
-        <is>
-          <t>2023-11-27</t>
-        </is>
-      </c>
-      <c r="B40" s="27" t="inlineStr">
-        <is>
-          <t>Amphi 2H</t>
-        </is>
-      </c>
-      <c r="C40" s="27" t="inlineStr">
-        <is>
-          <t>TD 4H</t>
-        </is>
-      </c>
+      <c r="A40" s="27" t="n"/>
+      <c r="B40" s="27" t="n"/>
+      <c r="C40" s="27" t="n"/>
       <c r="D40" s="27" t="n"/>
       <c r="E40" s="27" t="n"/>
       <c r="F40" s="27" t="n"/>
@@ -23386,11 +22746,7 @@
       <c r="R40" s="27" t="n"/>
     </row>
     <row r="41">
-      <c r="A41" s="27" t="inlineStr">
-        <is>
-          <t>2023-12-04</t>
-        </is>
-      </c>
+      <c r="A41" s="27" t="n"/>
       <c r="B41" s="27" t="n"/>
       <c r="C41" s="27" t="n"/>
       <c r="D41" s="27" t="n"/>
@@ -25029,22 +24385,10 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="inlineStr">
-        <is>
-          <t>2023-11-20</t>
-        </is>
-      </c>
-      <c r="B35" s="28" t="inlineStr">
-        <is>
-          <t>Amphi 2H</t>
-        </is>
-      </c>
+      <c r="A35" s="27" t="n"/>
+      <c r="B35" s="28" t="n"/>
       <c r="C35" s="27" t="n"/>
-      <c r="D35" s="27" t="inlineStr">
-        <is>
-          <t>TP 4H</t>
-        </is>
-      </c>
+      <c r="D35" s="27" t="n"/>
       <c r="E35" s="27" t="n"/>
       <c r="F35" s="27" t="n"/>
       <c r="G35" s="27" t="n"/>
@@ -25061,21 +24405,9 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="inlineStr">
-        <is>
-          <t>2023-11-27</t>
-        </is>
-      </c>
-      <c r="B36" s="28" t="inlineStr">
-        <is>
-          <t>Amphi 2H</t>
-        </is>
-      </c>
-      <c r="C36" s="27" t="inlineStr">
-        <is>
-          <t>TD 4H</t>
-        </is>
-      </c>
+      <c r="A36" s="27" t="n"/>
+      <c r="B36" s="28" t="n"/>
+      <c r="C36" s="27" t="n"/>
       <c r="D36" s="27" t="n"/>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
@@ -25093,18 +24425,10 @@
       <c r="R36" s="27" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="27" t="inlineStr">
-        <is>
-          <t>2023-12-04</t>
-        </is>
-      </c>
+      <c r="A37" s="27" t="n"/>
       <c r="B37" s="28" t="n"/>
       <c r="C37" s="27" t="n"/>
-      <c r="D37" s="27" t="inlineStr">
-        <is>
-          <t>TP 4H</t>
-        </is>
-      </c>
+      <c r="D37" s="27" t="n"/>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
       <c r="G37" s="27" t="n"/>
@@ -26820,17 +26144,9 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="inlineStr">
-        <is>
-          <t>2023-09-04</t>
-        </is>
-      </c>
+      <c r="A35" s="27" t="n"/>
       <c r="B35" s="28" t="n"/>
-      <c r="C35" s="27" t="inlineStr">
-        <is>
-          <t>TD 2H</t>
-        </is>
-      </c>
+      <c r="C35" s="27" t="n"/>
       <c r="D35" s="27" t="n"/>
       <c r="E35" s="27" t="n"/>
       <c r="F35" s="27" t="n"/>
@@ -26848,17 +26164,9 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="inlineStr">
-        <is>
-          <t>2023-09-18</t>
-        </is>
-      </c>
+      <c r="A36" s="27" t="n"/>
       <c r="B36" s="28" t="n"/>
-      <c r="C36" s="27" t="inlineStr">
-        <is>
-          <t>TD 4H</t>
-        </is>
-      </c>
+      <c r="C36" s="27" t="n"/>
       <c r="D36" s="27" t="n"/>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
@@ -26876,18 +26184,10 @@
       <c r="R36" s="27" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="27" t="inlineStr">
-        <is>
-          <t>2023-09-25</t>
-        </is>
-      </c>
+      <c r="A37" s="27" t="n"/>
       <c r="B37" s="28" t="n"/>
       <c r="C37" s="27" t="n"/>
-      <c r="D37" s="27" t="inlineStr">
-        <is>
-          <t>TP 4H</t>
-        </is>
-      </c>
+      <c r="D37" s="27" t="n"/>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
       <c r="G37" s="27" t="n"/>
@@ -26904,22 +26204,10 @@
       <c r="R37" s="27" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="27" t="inlineStr">
-        <is>
-          <t>2023-10-02</t>
-        </is>
-      </c>
+      <c r="A38" s="27" t="n"/>
       <c r="B38" s="27" t="n"/>
-      <c r="C38" s="27" t="inlineStr">
-        <is>
-          <t>TD 4H</t>
-        </is>
-      </c>
-      <c r="D38" s="27" t="inlineStr">
-        <is>
-          <t>TP 4H</t>
-        </is>
-      </c>
+      <c r="C38" s="27" t="n"/>
+      <c r="D38" s="27" t="n"/>
       <c r="E38" s="27" t="n"/>
       <c r="F38" s="27" t="n"/>
       <c r="G38" s="27" t="n"/>
@@ -28615,16 +27903,8 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="inlineStr">
-        <is>
-          <t>2023-09-04</t>
-        </is>
-      </c>
-      <c r="B35" s="28" t="inlineStr">
-        <is>
-          <t>Amphi 2H</t>
-        </is>
-      </c>
+      <c r="A35" s="27" t="n"/>
+      <c r="B35" s="28" t="n"/>
       <c r="C35" s="27" t="n"/>
       <c r="D35" s="27" t="n"/>
       <c r="E35" s="27" t="n"/>
@@ -28643,21 +27923,9 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="inlineStr">
-        <is>
-          <t>2023-09-11</t>
-        </is>
-      </c>
-      <c r="B36" s="28" t="inlineStr">
-        <is>
-          <t>Amphi 2H</t>
-        </is>
-      </c>
-      <c r="C36" s="27" t="inlineStr">
-        <is>
-          <t>TD 2H</t>
-        </is>
-      </c>
+      <c r="A36" s="27" t="n"/>
+      <c r="B36" s="28" t="n"/>
+      <c r="C36" s="27" t="n"/>
       <c r="D36" s="27" t="n"/>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
@@ -28675,21 +27943,9 @@
       <c r="R36" s="27" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="27" t="inlineStr">
-        <is>
-          <t>2023-09-18</t>
-        </is>
-      </c>
-      <c r="B37" s="28" t="inlineStr">
-        <is>
-          <t>Amphi 2H</t>
-        </is>
-      </c>
-      <c r="C37" s="27" t="inlineStr">
-        <is>
-          <t>TD 2H</t>
-        </is>
-      </c>
+      <c r="A37" s="27" t="n"/>
+      <c r="B37" s="28" t="n"/>
+      <c r="C37" s="27" t="n"/>
       <c r="D37" s="27" t="n"/>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
@@ -28707,17 +27963,9 @@
       <c r="R37" s="27" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="27" t="inlineStr">
-        <is>
-          <t>2023-09-25</t>
-        </is>
-      </c>
+      <c r="A38" s="27" t="n"/>
       <c r="B38" s="27" t="n"/>
-      <c r="C38" s="27" t="inlineStr">
-        <is>
-          <t>TD 2H</t>
-        </is>
-      </c>
+      <c r="C38" s="27" t="n"/>
       <c r="D38" s="27" t="n"/>
       <c r="E38" s="27" t="n"/>
       <c r="F38" s="27" t="n"/>
@@ -28735,17 +27983,9 @@
       <c r="R38" s="27" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="27" t="inlineStr">
-        <is>
-          <t>2023-10-02</t>
-        </is>
-      </c>
+      <c r="A39" s="27" t="n"/>
       <c r="B39" s="27" t="n"/>
-      <c r="C39" s="27" t="inlineStr">
-        <is>
-          <t>TD 2H</t>
-        </is>
-      </c>
+      <c r="C39" s="27" t="n"/>
       <c r="D39" s="27" t="n"/>
       <c r="E39" s="27" t="n"/>
       <c r="F39" s="27" t="n"/>
@@ -28763,21 +28003,9 @@
       <c r="R39" s="27" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" s="27" t="inlineStr">
-        <is>
-          <t>2023-11-06</t>
-        </is>
-      </c>
-      <c r="B40" s="27" t="inlineStr">
-        <is>
-          <t>Amphi 2H</t>
-        </is>
-      </c>
-      <c r="C40" s="27" t="inlineStr">
-        <is>
-          <t>TD 2H</t>
-        </is>
-      </c>
+      <c r="A40" s="27" t="n"/>
+      <c r="B40" s="27" t="n"/>
+      <c r="C40" s="27" t="n"/>
       <c r="D40" s="27" t="n"/>
       <c r="E40" s="27" t="n"/>
       <c r="F40" s="27" t="n"/>
@@ -28795,21 +28023,9 @@
       <c r="R40" s="27" t="n"/>
     </row>
     <row r="41">
-      <c r="A41" s="27" t="inlineStr">
-        <is>
-          <t>2023-11-13</t>
-        </is>
-      </c>
-      <c r="B41" s="27" t="inlineStr">
-        <is>
-          <t>Amphi 2H</t>
-        </is>
-      </c>
-      <c r="C41" s="27" t="inlineStr">
-        <is>
-          <t>TD 4H</t>
-        </is>
-      </c>
+      <c r="A41" s="27" t="n"/>
+      <c r="B41" s="27" t="n"/>
+      <c r="C41" s="27" t="n"/>
       <c r="D41" s="27" t="n"/>
       <c r="E41" s="27" t="n"/>
       <c r="F41" s="27" t="n"/>
@@ -28827,17 +28043,9 @@
       <c r="R41" s="27" t="n"/>
     </row>
     <row r="42">
-      <c r="A42" s="27" t="inlineStr">
-        <is>
-          <t>2023-11-20</t>
-        </is>
-      </c>
+      <c r="A42" s="27" t="n"/>
       <c r="B42" s="27" t="n"/>
-      <c r="C42" s="27" t="inlineStr">
-        <is>
-          <t>TD 4H</t>
-        </is>
-      </c>
+      <c r="C42" s="27" t="n"/>
       <c r="D42" s="27" t="n"/>
       <c r="E42" s="27" t="n"/>
       <c r="F42" s="27" t="n"/>
@@ -28855,11 +28063,7 @@
       <c r="R42" s="27" t="n"/>
     </row>
     <row r="43">
-      <c r="A43" s="27" t="inlineStr">
-        <is>
-          <t>2023-11-27</t>
-        </is>
-      </c>
+      <c r="A43" s="27" t="n"/>
       <c r="B43" s="27" t="n"/>
       <c r="C43" s="27" t="n"/>
       <c r="D43" s="27" t="n"/>

--- a/SAE_3_01/fichiers genere/S3BFI.xlsx
+++ b/SAE_3_01/fichiers genere/S3BFI.xlsx
@@ -3277,8 +3277,16 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="n"/>
-      <c r="B35" s="28" t="n"/>
+      <c r="A35" s="27" t="inlineStr">
+        <is>
+          <t>2023-09-11</t>
+        </is>
+      </c>
+      <c r="B35" s="28" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
       <c r="C35" s="27" t="n"/>
       <c r="D35" s="27" t="n"/>
       <c r="E35" s="27" t="n"/>
@@ -3297,9 +3305,21 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="n"/>
-      <c r="B36" s="28" t="n"/>
-      <c r="C36" s="27" t="n"/>
+      <c r="A36" s="27" t="inlineStr">
+        <is>
+          <t>2023-09-18</t>
+        </is>
+      </c>
+      <c r="B36" s="28" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
+      <c r="C36" s="27" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D36" s="27" t="n"/>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
@@ -3317,9 +3337,17 @@
       <c r="R36" s="27" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="27" t="n"/>
+      <c r="A37" s="27" t="inlineStr">
+        <is>
+          <t>2023-09-25</t>
+        </is>
+      </c>
       <c r="B37" s="28" t="n"/>
-      <c r="C37" s="27" t="n"/>
+      <c r="C37" s="27" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D37" s="27" t="n"/>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
@@ -3337,9 +3365,17 @@
       <c r="R37" s="27" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="27" t="n"/>
+      <c r="A38" s="27" t="inlineStr">
+        <is>
+          <t>2023-10-02</t>
+        </is>
+      </c>
       <c r="B38" s="27" t="n"/>
-      <c r="C38" s="27" t="n"/>
+      <c r="C38" s="27" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D38" s="27" t="n"/>
       <c r="E38" s="27" t="n"/>
       <c r="F38" s="27" t="n"/>
@@ -3357,8 +3393,16 @@
       <c r="R38" s="27" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="27" t="n"/>
-      <c r="B39" s="27" t="n"/>
+      <c r="A39" s="27" t="inlineStr">
+        <is>
+          <t>2023-11-06</t>
+        </is>
+      </c>
+      <c r="B39" s="27" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
       <c r="C39" s="27" t="n"/>
       <c r="D39" s="27" t="n"/>
       <c r="E39" s="27" t="n"/>
@@ -3377,9 +3421,17 @@
       <c r="R39" s="27" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" s="27" t="n"/>
+      <c r="A40" s="27" t="inlineStr">
+        <is>
+          <t>2023-11-13</t>
+        </is>
+      </c>
       <c r="B40" s="27" t="n"/>
-      <c r="C40" s="27" t="n"/>
+      <c r="C40" s="27" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D40" s="27" t="n"/>
       <c r="E40" s="27" t="n"/>
       <c r="F40" s="27" t="n"/>
@@ -3397,9 +3449,21 @@
       <c r="R40" s="27" t="n"/>
     </row>
     <row r="41">
-      <c r="A41" s="27" t="n"/>
-      <c r="B41" s="27" t="n"/>
-      <c r="C41" s="27" t="n"/>
+      <c r="A41" s="27" t="inlineStr">
+        <is>
+          <t>2023-11-20</t>
+        </is>
+      </c>
+      <c r="B41" s="27" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
+      <c r="C41" s="27" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D41" s="27" t="n"/>
       <c r="E41" s="27" t="n"/>
       <c r="F41" s="27" t="n"/>
@@ -3417,9 +3481,17 @@
       <c r="R41" s="27" t="n"/>
     </row>
     <row r="42">
-      <c r="A42" s="27" t="n"/>
+      <c r="A42" s="27" t="inlineStr">
+        <is>
+          <t>2023-11-27</t>
+        </is>
+      </c>
       <c r="B42" s="27" t="n"/>
-      <c r="C42" s="27" t="n"/>
+      <c r="C42" s="27" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D42" s="27" t="n"/>
       <c r="E42" s="27" t="n"/>
       <c r="F42" s="27" t="n"/>
@@ -3437,9 +3509,17 @@
       <c r="R42" s="27" t="n"/>
     </row>
     <row r="43">
-      <c r="A43" s="27" t="n"/>
+      <c r="A43" s="27" t="inlineStr">
+        <is>
+          <t>2023-12-04</t>
+        </is>
+      </c>
       <c r="B43" s="27" t="n"/>
-      <c r="C43" s="27" t="n"/>
+      <c r="C43" s="27" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D43" s="27" t="n"/>
       <c r="E43" s="27" t="n"/>
       <c r="F43" s="27" t="n"/>
@@ -5036,10 +5116,18 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="n"/>
+      <c r="A35" s="27" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
       <c r="B35" s="28" t="n"/>
       <c r="C35" s="27" t="n"/>
-      <c r="D35" s="27" t="n"/>
+      <c r="D35" s="27" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E35" s="27" t="n"/>
       <c r="F35" s="27" t="n"/>
       <c r="G35" s="27" t="n"/>
@@ -5056,9 +5144,21 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="n"/>
-      <c r="B36" s="28" t="n"/>
-      <c r="C36" s="27" t="n"/>
+      <c r="A36" s="27" t="inlineStr">
+        <is>
+          <t>2023-09-11</t>
+        </is>
+      </c>
+      <c r="B36" s="28" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
+      <c r="C36" s="27" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D36" s="27" t="n"/>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
@@ -5076,9 +5176,21 @@
       <c r="R36" s="27" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="27" t="n"/>
-      <c r="B37" s="28" t="n"/>
-      <c r="C37" s="27" t="n"/>
+      <c r="A37" s="27" t="inlineStr">
+        <is>
+          <t>2023-09-18</t>
+        </is>
+      </c>
+      <c r="B37" s="28" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
+      <c r="C37" s="27" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D37" s="27" t="n"/>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
@@ -5096,10 +5208,22 @@
       <c r="R37" s="27" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="27" t="n"/>
+      <c r="A38" s="27" t="inlineStr">
+        <is>
+          <t>2023-09-25</t>
+        </is>
+      </c>
       <c r="B38" s="27" t="n"/>
-      <c r="C38" s="27" t="n"/>
-      <c r="D38" s="27" t="n"/>
+      <c r="C38" s="27" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
+      <c r="D38" s="27" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E38" s="27" t="n"/>
       <c r="F38" s="27" t="n"/>
       <c r="G38" s="27" t="n"/>
@@ -5116,9 +5240,17 @@
       <c r="R38" s="27" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="27" t="n"/>
+      <c r="A39" s="27" t="inlineStr">
+        <is>
+          <t>2023-10-02</t>
+        </is>
+      </c>
       <c r="B39" s="27" t="n"/>
-      <c r="C39" s="27" t="n"/>
+      <c r="C39" s="27" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D39" s="27" t="n"/>
       <c r="E39" s="27" t="n"/>
       <c r="F39" s="27" t="n"/>
@@ -5136,9 +5268,21 @@
       <c r="R39" s="27" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" s="27" t="n"/>
-      <c r="B40" s="27" t="n"/>
-      <c r="C40" s="27" t="n"/>
+      <c r="A40" s="27" t="inlineStr">
+        <is>
+          <t>2023-11-13</t>
+        </is>
+      </c>
+      <c r="B40" s="27" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
+      <c r="C40" s="27" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D40" s="27" t="n"/>
       <c r="E40" s="27" t="n"/>
       <c r="F40" s="27" t="n"/>
@@ -5156,10 +5300,18 @@
       <c r="R40" s="27" t="n"/>
     </row>
     <row r="41">
-      <c r="A41" s="27" t="n"/>
+      <c r="A41" s="27" t="inlineStr">
+        <is>
+          <t>2023-11-20</t>
+        </is>
+      </c>
       <c r="B41" s="27" t="n"/>
       <c r="C41" s="27" t="n"/>
-      <c r="D41" s="27" t="n"/>
+      <c r="D41" s="27" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E41" s="27" t="n"/>
       <c r="F41" s="27" t="n"/>
       <c r="G41" s="27" t="n"/>
@@ -5176,7 +5328,11 @@
       <c r="R41" s="27" t="n"/>
     </row>
     <row r="42">
-      <c r="A42" s="27" t="n"/>
+      <c r="A42" s="27" t="inlineStr">
+        <is>
+          <t>2023-11-27</t>
+        </is>
+      </c>
       <c r="B42" s="27" t="n"/>
       <c r="C42" s="27" t="n"/>
       <c r="D42" s="27" t="n"/>
@@ -6795,8 +6951,16 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="n"/>
-      <c r="B35" s="28" t="n"/>
+      <c r="A35" s="27" t="inlineStr">
+        <is>
+          <t>2023-09-25</t>
+        </is>
+      </c>
+      <c r="B35" s="28" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
       <c r="C35" s="27" t="n"/>
       <c r="D35" s="27" t="n"/>
       <c r="E35" s="27" t="n"/>
@@ -6815,9 +6979,17 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="n"/>
+      <c r="A36" s="27" t="inlineStr">
+        <is>
+          <t>2023-10-02</t>
+        </is>
+      </c>
       <c r="B36" s="28" t="n"/>
-      <c r="C36" s="27" t="n"/>
+      <c r="C36" s="27" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D36" s="27" t="n"/>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
@@ -6835,9 +7007,17 @@
       <c r="R36" s="27" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="27" t="n"/>
+      <c r="A37" s="27" t="inlineStr">
+        <is>
+          <t>2023-11-06</t>
+        </is>
+      </c>
       <c r="B37" s="28" t="n"/>
-      <c r="C37" s="27" t="n"/>
+      <c r="C37" s="27" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D37" s="27" t="n"/>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
@@ -6855,9 +7035,21 @@
       <c r="R37" s="27" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="27" t="n"/>
-      <c r="B38" s="27" t="n"/>
-      <c r="C38" s="27" t="n"/>
+      <c r="A38" s="27" t="inlineStr">
+        <is>
+          <t>2023-11-13</t>
+        </is>
+      </c>
+      <c r="B38" s="27" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
+      <c r="C38" s="27" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D38" s="27" t="n"/>
       <c r="E38" s="27" t="n"/>
       <c r="F38" s="27" t="n"/>
@@ -6875,9 +7067,17 @@
       <c r="R38" s="27" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="27" t="n"/>
+      <c r="A39" s="27" t="inlineStr">
+        <is>
+          <t>2023-11-20</t>
+        </is>
+      </c>
       <c r="B39" s="27" t="n"/>
-      <c r="C39" s="27" t="n"/>
+      <c r="C39" s="27" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D39" s="27" t="n"/>
       <c r="E39" s="27" t="n"/>
       <c r="F39" s="27" t="n"/>
@@ -6895,9 +7095,17 @@
       <c r="R39" s="27" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" s="27" t="n"/>
+      <c r="A40" s="27" t="inlineStr">
+        <is>
+          <t>2023-11-27</t>
+        </is>
+      </c>
       <c r="B40" s="27" t="n"/>
-      <c r="C40" s="27" t="n"/>
+      <c r="C40" s="27" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D40" s="27" t="n"/>
       <c r="E40" s="27" t="n"/>
       <c r="F40" s="27" t="n"/>
@@ -6915,9 +7123,17 @@
       <c r="R40" s="27" t="n"/>
     </row>
     <row r="41">
-      <c r="A41" s="27" t="n"/>
+      <c r="A41" s="27" t="inlineStr">
+        <is>
+          <t>2023-12-04</t>
+        </is>
+      </c>
       <c r="B41" s="27" t="n"/>
-      <c r="C41" s="27" t="n"/>
+      <c r="C41" s="27" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D41" s="27" t="n"/>
       <c r="E41" s="27" t="n"/>
       <c r="F41" s="27" t="n"/>
@@ -8554,10 +8770,18 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="n"/>
+      <c r="A35" s="27" t="inlineStr">
+        <is>
+          <t>2023-09-18</t>
+        </is>
+      </c>
       <c r="B35" s="28" t="n"/>
       <c r="C35" s="27" t="n"/>
-      <c r="D35" s="27" t="n"/>
+      <c r="D35" s="27" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E35" s="27" t="n"/>
       <c r="F35" s="27" t="n"/>
       <c r="G35" s="27" t="n"/>
@@ -8574,10 +8798,18 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="n"/>
+      <c r="A36" s="27" t="inlineStr">
+        <is>
+          <t>2023-09-25</t>
+        </is>
+      </c>
       <c r="B36" s="28" t="n"/>
       <c r="C36" s="27" t="n"/>
-      <c r="D36" s="27" t="n"/>
+      <c r="D36" s="27" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
       <c r="G36" s="27" t="n"/>
@@ -8594,10 +8826,18 @@
       <c r="R36" s="27" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="27" t="n"/>
+      <c r="A37" s="27" t="inlineStr">
+        <is>
+          <t>2023-10-02</t>
+        </is>
+      </c>
       <c r="B37" s="28" t="n"/>
       <c r="C37" s="27" t="n"/>
-      <c r="D37" s="27" t="n"/>
+      <c r="D37" s="27" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
       <c r="G37" s="27" t="n"/>
@@ -8614,10 +8854,18 @@
       <c r="R37" s="27" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="27" t="n"/>
+      <c r="A38" s="27" t="inlineStr">
+        <is>
+          <t>2023-11-13</t>
+        </is>
+      </c>
       <c r="B38" s="27" t="n"/>
       <c r="C38" s="27" t="n"/>
-      <c r="D38" s="27" t="n"/>
+      <c r="D38" s="27" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E38" s="27" t="n"/>
       <c r="F38" s="27" t="n"/>
       <c r="G38" s="27" t="n"/>
@@ -8634,10 +8882,18 @@
       <c r="R38" s="27" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="27" t="n"/>
+      <c r="A39" s="27" t="inlineStr">
+        <is>
+          <t>2023-11-20</t>
+        </is>
+      </c>
       <c r="B39" s="27" t="n"/>
       <c r="C39" s="27" t="n"/>
-      <c r="D39" s="27" t="n"/>
+      <c r="D39" s="27" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E39" s="27" t="n"/>
       <c r="F39" s="27" t="n"/>
       <c r="G39" s="27" t="n"/>
@@ -8654,10 +8910,18 @@
       <c r="R39" s="27" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" s="27" t="n"/>
+      <c r="A40" s="27" t="inlineStr">
+        <is>
+          <t>2023-11-27</t>
+        </is>
+      </c>
       <c r="B40" s="27" t="n"/>
       <c r="C40" s="27" t="n"/>
-      <c r="D40" s="27" t="n"/>
+      <c r="D40" s="27" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E40" s="27" t="n"/>
       <c r="F40" s="27" t="n"/>
       <c r="G40" s="27" t="n"/>
@@ -8674,10 +8938,18 @@
       <c r="R40" s="27" t="n"/>
     </row>
     <row r="41">
-      <c r="A41" s="27" t="n"/>
+      <c r="A41" s="27" t="inlineStr">
+        <is>
+          <t>2023-12-11</t>
+        </is>
+      </c>
       <c r="B41" s="27" t="n"/>
       <c r="C41" s="27" t="n"/>
-      <c r="D41" s="27" t="n"/>
+      <c r="D41" s="27" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E41" s="27" t="n"/>
       <c r="F41" s="27" t="n"/>
       <c r="G41" s="27" t="n"/>
@@ -8694,10 +8966,18 @@
       <c r="R41" s="27" t="n"/>
     </row>
     <row r="42">
-      <c r="A42" s="27" t="n"/>
+      <c r="A42" s="27" t="inlineStr">
+        <is>
+          <t>2023-12-18</t>
+        </is>
+      </c>
       <c r="B42" s="27" t="n"/>
       <c r="C42" s="27" t="n"/>
-      <c r="D42" s="27" t="n"/>
+      <c r="D42" s="27" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E42" s="27" t="n"/>
       <c r="F42" s="27" t="n"/>
       <c r="G42" s="27" t="n"/>
@@ -8714,10 +8994,18 @@
       <c r="R42" s="27" t="n"/>
     </row>
     <row r="43">
-      <c r="A43" s="27" t="n"/>
+      <c r="A43" s="27" t="inlineStr">
+        <is>
+          <t>2024-01-08</t>
+        </is>
+      </c>
       <c r="B43" s="27" t="n"/>
       <c r="C43" s="27" t="n"/>
-      <c r="D43" s="27" t="n"/>
+      <c r="D43" s="27" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E43" s="27" t="n"/>
       <c r="F43" s="27" t="n"/>
       <c r="G43" s="27" t="n"/>
@@ -8734,10 +9022,18 @@
       <c r="R43" s="27" t="n"/>
     </row>
     <row r="44">
-      <c r="A44" s="27" t="n"/>
+      <c r="A44" s="27" t="inlineStr">
+        <is>
+          <t>2024-01-15</t>
+        </is>
+      </c>
       <c r="B44" s="27" t="n"/>
       <c r="C44" s="27" t="n"/>
-      <c r="D44" s="27" t="n"/>
+      <c r="D44" s="27" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E44" s="27" t="n"/>
       <c r="F44" s="27" t="n"/>
       <c r="G44" s="27" t="n"/>
@@ -10313,8 +10609,16 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="n"/>
-      <c r="B35" s="28" t="n"/>
+      <c r="A35" s="27" t="inlineStr">
+        <is>
+          <t>2023-09-25</t>
+        </is>
+      </c>
+      <c r="B35" s="28" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
       <c r="C35" s="27" t="n"/>
       <c r="D35" s="27" t="n"/>
       <c r="E35" s="27" t="n"/>
@@ -10333,8 +10637,16 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="n"/>
-      <c r="B36" s="28" t="n"/>
+      <c r="A36" s="27" t="inlineStr">
+        <is>
+          <t>2023-10-02</t>
+        </is>
+      </c>
+      <c r="B36" s="28" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
       <c r="C36" s="27" t="n"/>
       <c r="D36" s="27" t="n"/>
       <c r="E36" s="27" t="n"/>
@@ -10353,9 +10665,21 @@
       <c r="R36" s="27" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="27" t="n"/>
-      <c r="B37" s="28" t="n"/>
-      <c r="C37" s="27" t="n"/>
+      <c r="A37" s="27" t="inlineStr">
+        <is>
+          <t>2023-11-06</t>
+        </is>
+      </c>
+      <c r="B37" s="28" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
+      <c r="C37" s="27" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D37" s="27" t="n"/>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
@@ -10373,9 +10697,17 @@
       <c r="R37" s="27" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="27" t="n"/>
+      <c r="A38" s="27" t="inlineStr">
+        <is>
+          <t>2023-11-13</t>
+        </is>
+      </c>
       <c r="B38" s="27" t="n"/>
-      <c r="C38" s="27" t="n"/>
+      <c r="C38" s="27" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D38" s="27" t="n"/>
       <c r="E38" s="27" t="n"/>
       <c r="F38" s="27" t="n"/>
@@ -10393,10 +10725,18 @@
       <c r="R38" s="27" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="27" t="n"/>
+      <c r="A39" s="27" t="inlineStr">
+        <is>
+          <t>2023-11-20</t>
+        </is>
+      </c>
       <c r="B39" s="27" t="n"/>
       <c r="C39" s="27" t="n"/>
-      <c r="D39" s="27" t="n"/>
+      <c r="D39" s="27" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E39" s="27" t="n"/>
       <c r="F39" s="27" t="n"/>
       <c r="G39" s="27" t="n"/>
@@ -10413,10 +10753,18 @@
       <c r="R39" s="27" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" s="27" t="n"/>
+      <c r="A40" s="27" t="inlineStr">
+        <is>
+          <t>2023-11-27</t>
+        </is>
+      </c>
       <c r="B40" s="27" t="n"/>
       <c r="C40" s="27" t="n"/>
-      <c r="D40" s="27" t="n"/>
+      <c r="D40" s="27" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E40" s="27" t="n"/>
       <c r="F40" s="27" t="n"/>
       <c r="G40" s="27" t="n"/>
@@ -12072,9 +12420,17 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="n"/>
+      <c r="A35" s="27" t="inlineStr">
+        <is>
+          <t>2023-09-11</t>
+        </is>
+      </c>
       <c r="B35" s="28" t="n"/>
-      <c r="C35" s="27" t="n"/>
+      <c r="C35" s="27" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D35" s="27" t="n"/>
       <c r="E35" s="27" t="n"/>
       <c r="F35" s="27" t="n"/>
@@ -12092,10 +12448,18 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="n"/>
+      <c r="A36" s="27" t="inlineStr">
+        <is>
+          <t>2023-09-18</t>
+        </is>
+      </c>
       <c r="B36" s="28" t="n"/>
       <c r="C36" s="27" t="n"/>
-      <c r="D36" s="27" t="n"/>
+      <c r="D36" s="27" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
       <c r="G36" s="27" t="n"/>
@@ -12112,9 +12476,17 @@
       <c r="R36" s="27" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="27" t="n"/>
+      <c r="A37" s="27" t="inlineStr">
+        <is>
+          <t>2023-09-25</t>
+        </is>
+      </c>
       <c r="B37" s="28" t="n"/>
-      <c r="C37" s="27" t="n"/>
+      <c r="C37" s="27" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D37" s="27" t="n"/>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
@@ -13831,9 +14203,21 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="n"/>
-      <c r="B35" s="28" t="n"/>
-      <c r="C35" s="27" t="n"/>
+      <c r="A35" s="27" t="inlineStr">
+        <is>
+          <t>2023-12-11</t>
+        </is>
+      </c>
+      <c r="B35" s="28" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
+      <c r="C35" s="27" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D35" s="27" t="n"/>
       <c r="E35" s="27" t="n"/>
       <c r="F35" s="27" t="n"/>
@@ -13851,9 +14235,21 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="n"/>
-      <c r="B36" s="28" t="n"/>
-      <c r="C36" s="27" t="n"/>
+      <c r="A36" s="27" t="inlineStr">
+        <is>
+          <t>2023-12-18</t>
+        </is>
+      </c>
+      <c r="B36" s="28" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
+      <c r="C36" s="27" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D36" s="27" t="n"/>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
@@ -13871,9 +14267,17 @@
       <c r="R36" s="27" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="27" t="n"/>
+      <c r="A37" s="27" t="inlineStr">
+        <is>
+          <t>2024-01-08</t>
+        </is>
+      </c>
       <c r="B37" s="28" t="n"/>
-      <c r="C37" s="27" t="n"/>
+      <c r="C37" s="27" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D37" s="27" t="n"/>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
@@ -15590,10 +15994,18 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="n"/>
+      <c r="A35" s="27" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
       <c r="B35" s="28" t="n"/>
       <c r="C35" s="27" t="n"/>
-      <c r="D35" s="27" t="n"/>
+      <c r="D35" s="27" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E35" s="27" t="n"/>
       <c r="F35" s="27" t="n"/>
       <c r="G35" s="27" t="n"/>
@@ -15610,10 +16022,18 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="n"/>
+      <c r="A36" s="27" t="inlineStr">
+        <is>
+          <t>2023-09-11</t>
+        </is>
+      </c>
       <c r="B36" s="28" t="n"/>
       <c r="C36" s="27" t="n"/>
-      <c r="D36" s="27" t="n"/>
+      <c r="D36" s="27" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
       <c r="G36" s="27" t="n"/>
@@ -15630,10 +16050,18 @@
       <c r="R36" s="27" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="27" t="n"/>
+      <c r="A37" s="27" t="inlineStr">
+        <is>
+          <t>2023-09-18</t>
+        </is>
+      </c>
       <c r="B37" s="28" t="n"/>
       <c r="C37" s="27" t="n"/>
-      <c r="D37" s="27" t="n"/>
+      <c r="D37" s="27" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
       <c r="G37" s="27" t="n"/>
@@ -15650,10 +16078,18 @@
       <c r="R37" s="27" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="27" t="n"/>
+      <c r="A38" s="27" t="inlineStr">
+        <is>
+          <t>2023-09-25</t>
+        </is>
+      </c>
       <c r="B38" s="27" t="n"/>
       <c r="C38" s="27" t="n"/>
-      <c r="D38" s="27" t="n"/>
+      <c r="D38" s="27" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E38" s="27" t="n"/>
       <c r="F38" s="27" t="n"/>
       <c r="G38" s="27" t="n"/>
@@ -15670,7 +16106,11 @@
       <c r="R38" s="27" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="27" t="n"/>
+      <c r="A39" s="27" t="inlineStr">
+        <is>
+          <t>2023-11-06</t>
+        </is>
+      </c>
       <c r="B39" s="27" t="n"/>
       <c r="C39" s="27" t="n"/>
       <c r="D39" s="27" t="n"/>
@@ -17349,8 +17789,16 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="n"/>
-      <c r="B35" s="28" t="n"/>
+      <c r="A35" s="27" t="inlineStr">
+        <is>
+          <t>2023-09-18</t>
+        </is>
+      </c>
+      <c r="B35" s="28" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
       <c r="C35" s="27" t="n"/>
       <c r="D35" s="27" t="n"/>
       <c r="E35" s="27" t="n"/>
@@ -17369,9 +17817,21 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="n"/>
-      <c r="B36" s="28" t="n"/>
-      <c r="C36" s="27" t="n"/>
+      <c r="A36" s="27" t="inlineStr">
+        <is>
+          <t>2023-09-25</t>
+        </is>
+      </c>
+      <c r="B36" s="28" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
+      <c r="C36" s="27" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D36" s="27" t="n"/>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
@@ -17389,9 +17849,17 @@
       <c r="R36" s="27" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="27" t="n"/>
+      <c r="A37" s="27" t="inlineStr">
+        <is>
+          <t>2023-10-02</t>
+        </is>
+      </c>
       <c r="B37" s="28" t="n"/>
-      <c r="C37" s="27" t="n"/>
+      <c r="C37" s="27" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D37" s="27" t="n"/>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
@@ -17409,10 +17877,18 @@
       <c r="R37" s="27" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="27" t="n"/>
+      <c r="A38" s="27" t="inlineStr">
+        <is>
+          <t>2023-11-13</t>
+        </is>
+      </c>
       <c r="B38" s="27" t="n"/>
       <c r="C38" s="27" t="n"/>
-      <c r="D38" s="27" t="n"/>
+      <c r="D38" s="27" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E38" s="27" t="n"/>
       <c r="F38" s="27" t="n"/>
       <c r="G38" s="27" t="n"/>
@@ -17429,10 +17905,18 @@
       <c r="R38" s="27" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="27" t="n"/>
+      <c r="A39" s="27" t="inlineStr">
+        <is>
+          <t>2023-11-20</t>
+        </is>
+      </c>
       <c r="B39" s="27" t="n"/>
       <c r="C39" s="27" t="n"/>
-      <c r="D39" s="27" t="n"/>
+      <c r="D39" s="27" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E39" s="27" t="n"/>
       <c r="F39" s="27" t="n"/>
       <c r="G39" s="27" t="n"/>
@@ -19108,9 +19592,17 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="n"/>
+      <c r="A35" s="27" t="inlineStr">
+        <is>
+          <t>2023-09-18</t>
+        </is>
+      </c>
       <c r="B35" s="28" t="n"/>
-      <c r="C35" s="27" t="n"/>
+      <c r="C35" s="27" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D35" s="27" t="n"/>
       <c r="E35" s="27" t="n"/>
       <c r="F35" s="27" t="n"/>
@@ -19128,10 +19620,18 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="n"/>
+      <c r="A36" s="27" t="inlineStr">
+        <is>
+          <t>2023-11-06</t>
+        </is>
+      </c>
       <c r="B36" s="28" t="n"/>
       <c r="C36" s="27" t="n"/>
-      <c r="D36" s="27" t="n"/>
+      <c r="D36" s="27" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
       <c r="G36" s="27" t="n"/>
@@ -19148,10 +19648,18 @@
       <c r="R36" s="27" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="27" t="n"/>
+      <c r="A37" s="27" t="inlineStr">
+        <is>
+          <t>2023-11-13</t>
+        </is>
+      </c>
       <c r="B37" s="28" t="n"/>
       <c r="C37" s="27" t="n"/>
-      <c r="D37" s="27" t="n"/>
+      <c r="D37" s="27" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
       <c r="G37" s="27" t="n"/>
@@ -19168,7 +19676,11 @@
       <c r="R37" s="27" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="27" t="n"/>
+      <c r="A38" s="27" t="inlineStr">
+        <is>
+          <t>2023-11-27</t>
+        </is>
+      </c>
       <c r="B38" s="27" t="n"/>
       <c r="C38" s="27" t="n"/>
       <c r="D38" s="27" t="n"/>
@@ -20867,8 +21379,16 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="n"/>
-      <c r="B35" s="28" t="n"/>
+      <c r="A35" s="27" t="inlineStr">
+        <is>
+          <t>2023-09-25</t>
+        </is>
+      </c>
+      <c r="B35" s="28" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
       <c r="C35" s="27" t="n"/>
       <c r="D35" s="27" t="n"/>
       <c r="E35" s="27" t="n"/>
@@ -20887,9 +21407,21 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="n"/>
-      <c r="B36" s="28" t="n"/>
-      <c r="C36" s="27" t="n"/>
+      <c r="A36" s="27" t="inlineStr">
+        <is>
+          <t>2023-10-02</t>
+        </is>
+      </c>
+      <c r="B36" s="28" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
+      <c r="C36" s="27" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D36" s="27" t="n"/>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
@@ -20907,9 +21439,21 @@
       <c r="R36" s="27" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="27" t="n"/>
-      <c r="B37" s="28" t="n"/>
-      <c r="C37" s="27" t="n"/>
+      <c r="A37" s="27" t="inlineStr">
+        <is>
+          <t>2023-11-06</t>
+        </is>
+      </c>
+      <c r="B37" s="28" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
+      <c r="C37" s="27" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D37" s="27" t="n"/>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
@@ -20927,10 +21471,18 @@
       <c r="R37" s="27" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="27" t="n"/>
+      <c r="A38" s="27" t="inlineStr">
+        <is>
+          <t>2023-11-13</t>
+        </is>
+      </c>
       <c r="B38" s="27" t="n"/>
       <c r="C38" s="27" t="n"/>
-      <c r="D38" s="27" t="n"/>
+      <c r="D38" s="27" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E38" s="27" t="n"/>
       <c r="F38" s="27" t="n"/>
       <c r="G38" s="27" t="n"/>
@@ -20947,10 +21499,18 @@
       <c r="R38" s="27" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="27" t="n"/>
+      <c r="A39" s="27" t="inlineStr">
+        <is>
+          <t>2023-11-20</t>
+        </is>
+      </c>
       <c r="B39" s="27" t="n"/>
       <c r="C39" s="27" t="n"/>
-      <c r="D39" s="27" t="n"/>
+      <c r="D39" s="27" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E39" s="27" t="n"/>
       <c r="F39" s="27" t="n"/>
       <c r="G39" s="27" t="n"/>
@@ -20967,10 +21527,18 @@
       <c r="R39" s="27" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" s="27" t="n"/>
+      <c r="A40" s="27" t="inlineStr">
+        <is>
+          <t>2023-11-27</t>
+        </is>
+      </c>
       <c r="B40" s="27" t="n"/>
       <c r="C40" s="27" t="n"/>
-      <c r="D40" s="27" t="n"/>
+      <c r="D40" s="27" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E40" s="27" t="n"/>
       <c r="F40" s="27" t="n"/>
       <c r="G40" s="27" t="n"/>
@@ -20987,10 +21555,18 @@
       <c r="R40" s="27" t="n"/>
     </row>
     <row r="41">
-      <c r="A41" s="27" t="n"/>
+      <c r="A41" s="27" t="inlineStr">
+        <is>
+          <t>2023-12-04</t>
+        </is>
+      </c>
       <c r="B41" s="27" t="n"/>
       <c r="C41" s="27" t="n"/>
-      <c r="D41" s="27" t="n"/>
+      <c r="D41" s="27" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E41" s="27" t="n"/>
       <c r="F41" s="27" t="n"/>
       <c r="G41" s="27" t="n"/>
@@ -22626,9 +23202,21 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="n"/>
-      <c r="B35" s="28" t="n"/>
-      <c r="C35" s="27" t="n"/>
+      <c r="A35" s="27" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="B35" s="28" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
+      <c r="C35" s="27" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D35" s="27" t="n"/>
       <c r="E35" s="27" t="n"/>
       <c r="F35" s="27" t="n"/>
@@ -22646,10 +23234,18 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="n"/>
+      <c r="A36" s="27" t="inlineStr">
+        <is>
+          <t>2023-09-11</t>
+        </is>
+      </c>
       <c r="B36" s="28" t="n"/>
       <c r="C36" s="27" t="n"/>
-      <c r="D36" s="27" t="n"/>
+      <c r="D36" s="27" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
       <c r="G36" s="27" t="n"/>
@@ -22666,10 +23262,22 @@
       <c r="R36" s="27" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="27" t="n"/>
-      <c r="B37" s="28" t="n"/>
+      <c r="A37" s="27" t="inlineStr">
+        <is>
+          <t>2023-11-06</t>
+        </is>
+      </c>
+      <c r="B37" s="28" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
       <c r="C37" s="27" t="n"/>
-      <c r="D37" s="27" t="n"/>
+      <c r="D37" s="27" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
       <c r="G37" s="27" t="n"/>
@@ -22686,9 +23294,21 @@
       <c r="R37" s="27" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="27" t="n"/>
-      <c r="B38" s="27" t="n"/>
-      <c r="C38" s="27" t="n"/>
+      <c r="A38" s="27" t="inlineStr">
+        <is>
+          <t>2023-11-13</t>
+        </is>
+      </c>
+      <c r="B38" s="27" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
+      <c r="C38" s="27" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D38" s="27" t="n"/>
       <c r="E38" s="27" t="n"/>
       <c r="F38" s="27" t="n"/>
@@ -22706,8 +23326,16 @@
       <c r="R38" s="27" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="27" t="n"/>
-      <c r="B39" s="27" t="n"/>
+      <c r="A39" s="27" t="inlineStr">
+        <is>
+          <t>2023-11-20</t>
+        </is>
+      </c>
+      <c r="B39" s="27" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
       <c r="C39" s="27" t="n"/>
       <c r="D39" s="27" t="n"/>
       <c r="E39" s="27" t="n"/>
@@ -22726,9 +23354,21 @@
       <c r="R39" s="27" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" s="27" t="n"/>
-      <c r="B40" s="27" t="n"/>
-      <c r="C40" s="27" t="n"/>
+      <c r="A40" s="27" t="inlineStr">
+        <is>
+          <t>2023-11-27</t>
+        </is>
+      </c>
+      <c r="B40" s="27" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
+      <c r="C40" s="27" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D40" s="27" t="n"/>
       <c r="E40" s="27" t="n"/>
       <c r="F40" s="27" t="n"/>
@@ -22746,7 +23386,11 @@
       <c r="R40" s="27" t="n"/>
     </row>
     <row r="41">
-      <c r="A41" s="27" t="n"/>
+      <c r="A41" s="27" t="inlineStr">
+        <is>
+          <t>2023-12-04</t>
+        </is>
+      </c>
       <c r="B41" s="27" t="n"/>
       <c r="C41" s="27" t="n"/>
       <c r="D41" s="27" t="n"/>
@@ -24385,10 +25029,22 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="n"/>
-      <c r="B35" s="28" t="n"/>
+      <c r="A35" s="27" t="inlineStr">
+        <is>
+          <t>2023-11-20</t>
+        </is>
+      </c>
+      <c r="B35" s="28" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
       <c r="C35" s="27" t="n"/>
-      <c r="D35" s="27" t="n"/>
+      <c r="D35" s="27" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E35" s="27" t="n"/>
       <c r="F35" s="27" t="n"/>
       <c r="G35" s="27" t="n"/>
@@ -24405,9 +25061,21 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="n"/>
-      <c r="B36" s="28" t="n"/>
-      <c r="C36" s="27" t="n"/>
+      <c r="A36" s="27" t="inlineStr">
+        <is>
+          <t>2023-11-27</t>
+        </is>
+      </c>
+      <c r="B36" s="28" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
+      <c r="C36" s="27" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D36" s="27" t="n"/>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
@@ -24425,10 +25093,18 @@
       <c r="R36" s="27" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="27" t="n"/>
+      <c r="A37" s="27" t="inlineStr">
+        <is>
+          <t>2023-12-04</t>
+        </is>
+      </c>
       <c r="B37" s="28" t="n"/>
       <c r="C37" s="27" t="n"/>
-      <c r="D37" s="27" t="n"/>
+      <c r="D37" s="27" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
       <c r="G37" s="27" t="n"/>
@@ -26144,9 +26820,17 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="n"/>
+      <c r="A35" s="27" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
       <c r="B35" s="28" t="n"/>
-      <c r="C35" s="27" t="n"/>
+      <c r="C35" s="27" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D35" s="27" t="n"/>
       <c r="E35" s="27" t="n"/>
       <c r="F35" s="27" t="n"/>
@@ -26164,9 +26848,17 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="n"/>
+      <c r="A36" s="27" t="inlineStr">
+        <is>
+          <t>2023-09-18</t>
+        </is>
+      </c>
       <c r="B36" s="28" t="n"/>
-      <c r="C36" s="27" t="n"/>
+      <c r="C36" s="27" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D36" s="27" t="n"/>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
@@ -26184,10 +26876,18 @@
       <c r="R36" s="27" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="27" t="n"/>
+      <c r="A37" s="27" t="inlineStr">
+        <is>
+          <t>2023-09-25</t>
+        </is>
+      </c>
       <c r="B37" s="28" t="n"/>
       <c r="C37" s="27" t="n"/>
-      <c r="D37" s="27" t="n"/>
+      <c r="D37" s="27" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
       <c r="G37" s="27" t="n"/>
@@ -26204,10 +26904,22 @@
       <c r="R37" s="27" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="27" t="n"/>
+      <c r="A38" s="27" t="inlineStr">
+        <is>
+          <t>2023-10-02</t>
+        </is>
+      </c>
       <c r="B38" s="27" t="n"/>
-      <c r="C38" s="27" t="n"/>
-      <c r="D38" s="27" t="n"/>
+      <c r="C38" s="27" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
+      <c r="D38" s="27" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E38" s="27" t="n"/>
       <c r="F38" s="27" t="n"/>
       <c r="G38" s="27" t="n"/>
@@ -27903,8 +28615,16 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="n"/>
-      <c r="B35" s="28" t="n"/>
+      <c r="A35" s="27" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="B35" s="28" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
       <c r="C35" s="27" t="n"/>
       <c r="D35" s="27" t="n"/>
       <c r="E35" s="27" t="n"/>
@@ -27923,9 +28643,21 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="n"/>
-      <c r="B36" s="28" t="n"/>
-      <c r="C36" s="27" t="n"/>
+      <c r="A36" s="27" t="inlineStr">
+        <is>
+          <t>2023-09-11</t>
+        </is>
+      </c>
+      <c r="B36" s="28" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
+      <c r="C36" s="27" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D36" s="27" t="n"/>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
@@ -27943,9 +28675,21 @@
       <c r="R36" s="27" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="27" t="n"/>
-      <c r="B37" s="28" t="n"/>
-      <c r="C37" s="27" t="n"/>
+      <c r="A37" s="27" t="inlineStr">
+        <is>
+          <t>2023-09-18</t>
+        </is>
+      </c>
+      <c r="B37" s="28" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
+      <c r="C37" s="27" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D37" s="27" t="n"/>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
@@ -27963,9 +28707,17 @@
       <c r="R37" s="27" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="27" t="n"/>
+      <c r="A38" s="27" t="inlineStr">
+        <is>
+          <t>2023-09-25</t>
+        </is>
+      </c>
       <c r="B38" s="27" t="n"/>
-      <c r="C38" s="27" t="n"/>
+      <c r="C38" s="27" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D38" s="27" t="n"/>
       <c r="E38" s="27" t="n"/>
       <c r="F38" s="27" t="n"/>
@@ -27983,9 +28735,17 @@
       <c r="R38" s="27" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="27" t="n"/>
+      <c r="A39" s="27" t="inlineStr">
+        <is>
+          <t>2023-10-02</t>
+        </is>
+      </c>
       <c r="B39" s="27" t="n"/>
-      <c r="C39" s="27" t="n"/>
+      <c r="C39" s="27" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D39" s="27" t="n"/>
       <c r="E39" s="27" t="n"/>
       <c r="F39" s="27" t="n"/>
@@ -28003,9 +28763,21 @@
       <c r="R39" s="27" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" s="27" t="n"/>
-      <c r="B40" s="27" t="n"/>
-      <c r="C40" s="27" t="n"/>
+      <c r="A40" s="27" t="inlineStr">
+        <is>
+          <t>2023-11-06</t>
+        </is>
+      </c>
+      <c r="B40" s="27" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
+      <c r="C40" s="27" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D40" s="27" t="n"/>
       <c r="E40" s="27" t="n"/>
       <c r="F40" s="27" t="n"/>
@@ -28023,9 +28795,21 @@
       <c r="R40" s="27" t="n"/>
     </row>
     <row r="41">
-      <c r="A41" s="27" t="n"/>
-      <c r="B41" s="27" t="n"/>
-      <c r="C41" s="27" t="n"/>
+      <c r="A41" s="27" t="inlineStr">
+        <is>
+          <t>2023-11-13</t>
+        </is>
+      </c>
+      <c r="B41" s="27" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
+      <c r="C41" s="27" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D41" s="27" t="n"/>
       <c r="E41" s="27" t="n"/>
       <c r="F41" s="27" t="n"/>
@@ -28043,9 +28827,17 @@
       <c r="R41" s="27" t="n"/>
     </row>
     <row r="42">
-      <c r="A42" s="27" t="n"/>
+      <c r="A42" s="27" t="inlineStr">
+        <is>
+          <t>2023-11-20</t>
+        </is>
+      </c>
       <c r="B42" s="27" t="n"/>
-      <c r="C42" s="27" t="n"/>
+      <c r="C42" s="27" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D42" s="27" t="n"/>
       <c r="E42" s="27" t="n"/>
       <c r="F42" s="27" t="n"/>
@@ -28063,7 +28855,11 @@
       <c r="R42" s="27" t="n"/>
     </row>
     <row r="43">
-      <c r="A43" s="27" t="n"/>
+      <c r="A43" s="27" t="inlineStr">
+        <is>
+          <t>2023-11-27</t>
+        </is>
+      </c>
       <c r="B43" s="27" t="n"/>
       <c r="C43" s="27" t="n"/>
       <c r="D43" s="27" t="n"/>

--- a/SAE_3_01/fichiers genere/S3BFI.xlsx
+++ b/SAE_3_01/fichiers genere/S3BFI.xlsx
@@ -7,21 +7,21 @@
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="R3.01 Développement Web" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="R3.02 Développement efficace" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="R3.03 Analyse" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="R3.04 Qualité de développement" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="R3.05 Programmation système" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="R3.06 Architecture des réseaux" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="R3.07 SQL dans un langage de pr" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="R3.08 Probabilités" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="R3.09 Cryptographie et sécurité" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="R3.10 Management des systèmes d" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="R3.11 Droit des contrats et du " sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="R3.12 Anglais" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="R3.13 Communication professionn" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="R3.14 PPP" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="R3.B.L1 Compléments cryptograph" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="R3.01" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="R3.02" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="R3.03" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="R3.04" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="R3.05" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="R3.06" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="R3.07" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="R3.08" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="R3.09" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="R3.10" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="R3.11" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="R3.12" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="R3.13" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="R3.14" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="R3.B.L1" sheetId="16" state="visible" r:id="rId16"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="191028" fullCalcOnLoad="1"/>
@@ -5121,7 +5121,11 @@
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="B35" s="28" t="n"/>
+      <c r="B35" s="28" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
       <c r="C35" s="27" t="n"/>
       <c r="D35" s="27" t="inlineStr">
         <is>
@@ -8772,7 +8776,7 @@
     <row r="35">
       <c r="A35" s="27" t="inlineStr">
         <is>
-          <t>2023-09-18</t>
+          <t>2023-09-04</t>
         </is>
       </c>
       <c r="B35" s="28" t="n"/>
@@ -8800,7 +8804,7 @@
     <row r="36">
       <c r="A36" s="27" t="inlineStr">
         <is>
-          <t>2023-09-25</t>
+          <t>2023-09-11</t>
         </is>
       </c>
       <c r="B36" s="28" t="n"/>
@@ -8828,7 +8832,7 @@
     <row r="37">
       <c r="A37" s="27" t="inlineStr">
         <is>
-          <t>2023-10-02</t>
+          <t>2023-09-18</t>
         </is>
       </c>
       <c r="B37" s="28" t="n"/>
@@ -8856,7 +8860,7 @@
     <row r="38">
       <c r="A38" s="27" t="inlineStr">
         <is>
-          <t>2023-11-13</t>
+          <t>2023-09-25</t>
         </is>
       </c>
       <c r="B38" s="27" t="n"/>
@@ -8884,7 +8888,7 @@
     <row r="39">
       <c r="A39" s="27" t="inlineStr">
         <is>
-          <t>2023-11-20</t>
+          <t>2023-10-02</t>
         </is>
       </c>
       <c r="B39" s="27" t="n"/>
@@ -8912,7 +8916,7 @@
     <row r="40">
       <c r="A40" s="27" t="inlineStr">
         <is>
-          <t>2023-11-27</t>
+          <t>2023-11-13</t>
         </is>
       </c>
       <c r="B40" s="27" t="n"/>
@@ -8940,7 +8944,7 @@
     <row r="41">
       <c r="A41" s="27" t="inlineStr">
         <is>
-          <t>2023-12-11</t>
+          <t>2023-11-20</t>
         </is>
       </c>
       <c r="B41" s="27" t="n"/>
@@ -8968,7 +8972,7 @@
     <row r="42">
       <c r="A42" s="27" t="inlineStr">
         <is>
-          <t>2023-12-18</t>
+          <t>2023-11-27</t>
         </is>
       </c>
       <c r="B42" s="27" t="n"/>
@@ -8996,7 +9000,7 @@
     <row r="43">
       <c r="A43" s="27" t="inlineStr">
         <is>
-          <t>2024-01-08</t>
+          <t>2023-12-11</t>
         </is>
       </c>
       <c r="B43" s="27" t="n"/>
@@ -9024,7 +9028,7 @@
     <row r="44">
       <c r="A44" s="27" t="inlineStr">
         <is>
-          <t>2024-01-15</t>
+          <t>2023-12-18</t>
         </is>
       </c>
       <c r="B44" s="27" t="n"/>
@@ -9050,10 +9054,18 @@
       <c r="R44" s="27" t="n"/>
     </row>
     <row r="45">
-      <c r="A45" s="27" t="n"/>
+      <c r="A45" s="27" t="inlineStr">
+        <is>
+          <t>2024-01-08</t>
+        </is>
+      </c>
       <c r="B45" s="27" t="n"/>
       <c r="C45" s="27" t="n"/>
-      <c r="D45" s="27" t="n"/>
+      <c r="D45" s="27" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E45" s="27" t="n"/>
       <c r="F45" s="27" t="n"/>
       <c r="G45" s="27" t="n"/>
@@ -9070,10 +9082,18 @@
       <c r="R45" s="27" t="n"/>
     </row>
     <row r="46">
-      <c r="A46" s="27" t="n"/>
+      <c r="A46" s="27" t="inlineStr">
+        <is>
+          <t>2024-01-15</t>
+        </is>
+      </c>
       <c r="B46" s="27" t="n"/>
       <c r="C46" s="27" t="n"/>
-      <c r="D46" s="27" t="n"/>
+      <c r="D46" s="27" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E46" s="27" t="n"/>
       <c r="F46" s="27" t="n"/>
       <c r="G46" s="27" t="n"/>
@@ -12428,7 +12448,7 @@
       <c r="B35" s="28" t="n"/>
       <c r="C35" s="27" t="inlineStr">
         <is>
-          <t>TD 2H</t>
+          <t>TD 4H</t>
         </is>
       </c>
       <c r="D35" s="27" t="n"/>
@@ -14205,14 +14225,10 @@
     <row r="35">
       <c r="A35" s="27" t="inlineStr">
         <is>
-          <t>2023-12-11</t>
-        </is>
-      </c>
-      <c r="B35" s="28" t="inlineStr">
-        <is>
-          <t>Amphi 2H</t>
-        </is>
-      </c>
+          <t>2023-10-09</t>
+        </is>
+      </c>
+      <c r="B35" s="28" t="n"/>
       <c r="C35" s="27" t="inlineStr">
         <is>
           <t>TD 4H</t>
@@ -14237,17 +14253,13 @@
     <row r="36">
       <c r="A36" s="27" t="inlineStr">
         <is>
-          <t>2023-12-18</t>
-        </is>
-      </c>
-      <c r="B36" s="28" t="inlineStr">
-        <is>
-          <t>Amphi 2H</t>
-        </is>
-      </c>
+          <t>2023-10-16</t>
+        </is>
+      </c>
+      <c r="B36" s="28" t="n"/>
       <c r="C36" s="27" t="inlineStr">
         <is>
-          <t>TD 2H</t>
+          <t>TD 4H</t>
         </is>
       </c>
       <c r="D36" s="27" t="n"/>
@@ -14269,13 +14281,17 @@
     <row r="37">
       <c r="A37" s="27" t="inlineStr">
         <is>
-          <t>2024-01-08</t>
-        </is>
-      </c>
-      <c r="B37" s="28" t="n"/>
+          <t>2023-12-11</t>
+        </is>
+      </c>
+      <c r="B37" s="28" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
       <c r="C37" s="27" t="inlineStr">
         <is>
-          <t>TD 2H</t>
+          <t>TD 4H</t>
         </is>
       </c>
       <c r="D37" s="27" t="n"/>
@@ -14295,9 +14311,21 @@
       <c r="R37" s="27" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="27" t="n"/>
-      <c r="B38" s="27" t="n"/>
-      <c r="C38" s="27" t="n"/>
+      <c r="A38" s="27" t="inlineStr">
+        <is>
+          <t>2023-12-18</t>
+        </is>
+      </c>
+      <c r="B38" s="27" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
+      <c r="C38" s="27" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D38" s="27" t="n"/>
       <c r="E38" s="27" t="n"/>
       <c r="F38" s="27" t="n"/>
@@ -14315,9 +14343,17 @@
       <c r="R38" s="27" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="27" t="n"/>
+      <c r="A39" s="27" t="inlineStr">
+        <is>
+          <t>2024-01-08</t>
+        </is>
+      </c>
       <c r="B39" s="27" t="n"/>
-      <c r="C39" s="27" t="n"/>
+      <c r="C39" s="27" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D39" s="27" t="n"/>
       <c r="E39" s="27" t="n"/>
       <c r="F39" s="27" t="n"/>
@@ -15257,7 +15293,7 @@
       </c>
       <c r="G2" s="27" t="inlineStr">
         <is>
-          <t>Mickaël MARTIN NEVOT</t>
+          <t>MickaÃ«l MARTIN NEVOT</t>
         </is>
       </c>
       <c r="H2" s="27" t="n"/>
@@ -15999,7 +16035,11 @@
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="B35" s="28" t="n"/>
+      <c r="B35" s="28" t="inlineStr">
+        <is>
+          <t>Amphi 6H</t>
+        </is>
+      </c>
       <c r="C35" s="27" t="n"/>
       <c r="D35" s="27" t="inlineStr">
         <is>
@@ -16027,7 +16067,11 @@
           <t>2023-09-11</t>
         </is>
       </c>
-      <c r="B36" s="28" t="n"/>
+      <c r="B36" s="28" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
       <c r="C36" s="27" t="n"/>
       <c r="D36" s="27" t="inlineStr">
         <is>
@@ -19594,10 +19638,14 @@
     <row r="35">
       <c r="A35" s="27" t="inlineStr">
         <is>
-          <t>2023-09-18</t>
-        </is>
-      </c>
-      <c r="B35" s="28" t="n"/>
+          <t>2023-09-11</t>
+        </is>
+      </c>
+      <c r="B35" s="28" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
       <c r="C35" s="27" t="inlineStr">
         <is>
           <t>TD 4H</t>
@@ -19622,16 +19670,16 @@
     <row r="36">
       <c r="A36" s="27" t="inlineStr">
         <is>
-          <t>2023-11-06</t>
+          <t>2023-09-18</t>
         </is>
       </c>
       <c r="B36" s="28" t="n"/>
-      <c r="C36" s="27" t="n"/>
-      <c r="D36" s="27" t="inlineStr">
-        <is>
-          <t>TP 4H</t>
-        </is>
-      </c>
+      <c r="C36" s="27" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
+      <c r="D36" s="27" t="n"/>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
       <c r="G36" s="27" t="n"/>
@@ -19650,14 +19698,14 @@
     <row r="37">
       <c r="A37" s="27" t="inlineStr">
         <is>
-          <t>2023-11-13</t>
+          <t>2023-11-06</t>
         </is>
       </c>
       <c r="B37" s="28" t="n"/>
       <c r="C37" s="27" t="n"/>
       <c r="D37" s="27" t="inlineStr">
         <is>
-          <t>TP 2H</t>
+          <t>TP 4H</t>
         </is>
       </c>
       <c r="E37" s="27" t="n"/>
@@ -19678,12 +19726,16 @@
     <row r="38">
       <c r="A38" s="27" t="inlineStr">
         <is>
-          <t>2023-11-27</t>
+          <t>2023-11-13</t>
         </is>
       </c>
       <c r="B38" s="27" t="n"/>
       <c r="C38" s="27" t="n"/>
-      <c r="D38" s="27" t="n"/>
+      <c r="D38" s="27" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E38" s="27" t="n"/>
       <c r="F38" s="27" t="n"/>
       <c r="G38" s="27" t="n"/>
@@ -19700,7 +19752,11 @@
       <c r="R38" s="27" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="27" t="n"/>
+      <c r="A39" s="27" t="inlineStr">
+        <is>
+          <t>2023-11-27</t>
+        </is>
+      </c>
       <c r="B39" s="27" t="n"/>
       <c r="C39" s="27" t="n"/>
       <c r="D39" s="27" t="n"/>
@@ -20642,7 +20698,7 @@
       </c>
       <c r="G2" s="27" t="inlineStr">
         <is>
-          <t>Mickaël MARTIN NEVOT</t>
+          <t>MickaÃ«l MARTIN NEVOT</t>
         </is>
       </c>
       <c r="H2" s="27" t="n"/>
@@ -23214,7 +23270,7 @@
       </c>
       <c r="C35" s="27" t="inlineStr">
         <is>
-          <t>TD 2H</t>
+          <t>TD 4H</t>
         </is>
       </c>
       <c r="D35" s="27" t="n"/>
@@ -26828,7 +26884,7 @@
       <c r="B35" s="28" t="n"/>
       <c r="C35" s="27" t="inlineStr">
         <is>
-          <t>TD 2H</t>
+          <t>TD 4H</t>
         </is>
       </c>
       <c r="D35" s="27" t="n"/>
@@ -26850,16 +26906,16 @@
     <row r="36">
       <c r="A36" s="27" t="inlineStr">
         <is>
-          <t>2023-09-18</t>
+          <t>2023-09-11</t>
         </is>
       </c>
       <c r="B36" s="28" t="n"/>
-      <c r="C36" s="27" t="inlineStr">
-        <is>
-          <t>TD 4H</t>
-        </is>
-      </c>
-      <c r="D36" s="27" t="n"/>
+      <c r="C36" s="27" t="n"/>
+      <c r="D36" s="27" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
       <c r="G36" s="27" t="n"/>
@@ -26878,16 +26934,16 @@
     <row r="37">
       <c r="A37" s="27" t="inlineStr">
         <is>
-          <t>2023-09-25</t>
+          <t>2023-09-18</t>
         </is>
       </c>
       <c r="B37" s="28" t="n"/>
-      <c r="C37" s="27" t="n"/>
-      <c r="D37" s="27" t="inlineStr">
-        <is>
-          <t>TP 4H</t>
-        </is>
-      </c>
+      <c r="C37" s="27" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
+      <c r="D37" s="27" t="n"/>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
       <c r="G37" s="27" t="n"/>
@@ -26906,15 +26962,11 @@
     <row r="38">
       <c r="A38" s="27" t="inlineStr">
         <is>
-          <t>2023-10-02</t>
+          <t>2023-09-25</t>
         </is>
       </c>
       <c r="B38" s="27" t="n"/>
-      <c r="C38" s="27" t="inlineStr">
-        <is>
-          <t>TD 4H</t>
-        </is>
-      </c>
+      <c r="C38" s="27" t="n"/>
       <c r="D38" s="27" t="inlineStr">
         <is>
           <t>TP 4H</t>
@@ -26936,10 +26988,22 @@
       <c r="R38" s="27" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="27" t="n"/>
+      <c r="A39" s="27" t="inlineStr">
+        <is>
+          <t>2023-10-02</t>
+        </is>
+      </c>
       <c r="B39" s="27" t="n"/>
-      <c r="C39" s="27" t="n"/>
-      <c r="D39" s="27" t="n"/>
+      <c r="C39" s="27" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
+      <c r="D39" s="27" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E39" s="27" t="n"/>
       <c r="F39" s="27" t="n"/>
       <c r="G39" s="27" t="n"/>

--- a/SAE_3_01/fichiers genere/S3BFI.xlsx
+++ b/SAE_3_01/fichiers genere/S3BFI.xlsx
@@ -3377,7 +3377,11 @@
         </is>
       </c>
       <c r="D38" s="27" t="n"/>
-      <c r="E38" s="27" t="n"/>
+      <c r="E38" s="27" t="inlineStr">
+        <is>
+          <t>Test 2H</t>
+        </is>
+      </c>
       <c r="F38" s="27" t="n"/>
       <c r="G38" s="27" t="n"/>
       <c r="H38" s="27" t="n"/>
@@ -3521,7 +3525,11 @@
         </is>
       </c>
       <c r="D43" s="27" t="n"/>
-      <c r="E43" s="27" t="n"/>
+      <c r="E43" s="27" t="inlineStr">
+        <is>
+          <t>Test 2H</t>
+        </is>
+      </c>
       <c r="F43" s="27" t="n"/>
       <c r="G43" s="27" t="n"/>
       <c r="H43" s="27" t="n"/>
@@ -5340,7 +5348,11 @@
       <c r="B42" s="27" t="n"/>
       <c r="C42" s="27" t="n"/>
       <c r="D42" s="27" t="n"/>
-      <c r="E42" s="27" t="n"/>
+      <c r="E42" s="27" t="inlineStr">
+        <is>
+          <t>Test 2H</t>
+        </is>
+      </c>
       <c r="F42" s="27" t="n"/>
       <c r="G42" s="27" t="n"/>
       <c r="H42" s="27" t="n"/>
@@ -7139,7 +7151,11 @@
         </is>
       </c>
       <c r="D41" s="27" t="n"/>
-      <c r="E41" s="27" t="n"/>
+      <c r="E41" s="27" t="inlineStr">
+        <is>
+          <t>Test 2H</t>
+        </is>
+      </c>
       <c r="F41" s="27" t="n"/>
       <c r="G41" s="27" t="n"/>
       <c r="H41" s="27" t="n"/>
@@ -14355,7 +14371,11 @@
         </is>
       </c>
       <c r="D39" s="27" t="n"/>
-      <c r="E39" s="27" t="n"/>
+      <c r="E39" s="27" t="inlineStr">
+        <is>
+          <t>Test 2H</t>
+        </is>
+      </c>
       <c r="F39" s="27" t="n"/>
       <c r="G39" s="27" t="n"/>
       <c r="H39" s="27" t="n"/>
@@ -15293,7 +15313,7 @@
       </c>
       <c r="G2" s="27" t="inlineStr">
         <is>
-          <t>MickaÃ«l MARTIN NEVOT</t>
+          <t>Mickaël MARTIN NEVOT</t>
         </is>
       </c>
       <c r="H2" s="27" t="n"/>
@@ -16158,7 +16178,11 @@
       <c r="B39" s="27" t="n"/>
       <c r="C39" s="27" t="n"/>
       <c r="D39" s="27" t="n"/>
-      <c r="E39" s="27" t="n"/>
+      <c r="E39" s="27" t="inlineStr">
+        <is>
+          <t>Test 4H</t>
+        </is>
+      </c>
       <c r="F39" s="27" t="n"/>
       <c r="G39" s="27" t="n"/>
       <c r="H39" s="27" t="n"/>
@@ -19760,7 +19784,11 @@
       <c r="B39" s="27" t="n"/>
       <c r="C39" s="27" t="n"/>
       <c r="D39" s="27" t="n"/>
-      <c r="E39" s="27" t="n"/>
+      <c r="E39" s="27" t="inlineStr">
+        <is>
+          <t>Test 4H</t>
+        </is>
+      </c>
       <c r="F39" s="27" t="n"/>
       <c r="G39" s="27" t="n"/>
       <c r="H39" s="27" t="n"/>
@@ -20698,7 +20726,7 @@
       </c>
       <c r="G2" s="27" t="inlineStr">
         <is>
-          <t>MickaÃ«l MARTIN NEVOT</t>
+          <t>Mickaël MARTIN NEVOT</t>
         </is>
       </c>
       <c r="H2" s="27" t="n"/>
@@ -21623,7 +21651,11 @@
           <t>TP 4H</t>
         </is>
       </c>
-      <c r="E41" s="27" t="n"/>
+      <c r="E41" s="27" t="inlineStr">
+        <is>
+          <t>Test 4H</t>
+        </is>
+      </c>
       <c r="F41" s="27" t="n"/>
       <c r="G41" s="27" t="n"/>
       <c r="H41" s="27" t="n"/>
@@ -23450,7 +23482,11 @@
       <c r="B41" s="27" t="n"/>
       <c r="C41" s="27" t="n"/>
       <c r="D41" s="27" t="n"/>
-      <c r="E41" s="27" t="n"/>
+      <c r="E41" s="27" t="inlineStr">
+        <is>
+          <t>Test 2H</t>
+        </is>
+      </c>
       <c r="F41" s="27" t="n"/>
       <c r="G41" s="27" t="n"/>
       <c r="H41" s="27" t="n"/>
@@ -25161,7 +25197,11 @@
           <t>TP 4H</t>
         </is>
       </c>
-      <c r="E37" s="27" t="n"/>
+      <c r="E37" s="27" t="inlineStr">
+        <is>
+          <t>Test 2H</t>
+        </is>
+      </c>
       <c r="F37" s="27" t="n"/>
       <c r="G37" s="27" t="n"/>
       <c r="H37" s="27" t="n"/>
@@ -27004,7 +27044,11 @@
           <t>TP 4H</t>
         </is>
       </c>
-      <c r="E39" s="27" t="n"/>
+      <c r="E39" s="27" t="inlineStr">
+        <is>
+          <t>Test 2H</t>
+        </is>
+      </c>
       <c r="F39" s="27" t="n"/>
       <c r="G39" s="27" t="n"/>
       <c r="H39" s="27" t="n"/>
@@ -28811,7 +28855,11 @@
         </is>
       </c>
       <c r="D39" s="27" t="n"/>
-      <c r="E39" s="27" t="n"/>
+      <c r="E39" s="27" t="inlineStr">
+        <is>
+          <t>Test 2H</t>
+        </is>
+      </c>
       <c r="F39" s="27" t="n"/>
       <c r="G39" s="27" t="n"/>
       <c r="H39" s="27" t="n"/>
@@ -28927,7 +28975,11 @@
       <c r="B43" s="27" t="n"/>
       <c r="C43" s="27" t="n"/>
       <c r="D43" s="27" t="n"/>
-      <c r="E43" s="27" t="n"/>
+      <c r="E43" s="27" t="inlineStr">
+        <is>
+          <t>Test 2H</t>
+        </is>
+      </c>
       <c r="F43" s="27" t="n"/>
       <c r="G43" s="27" t="n"/>
       <c r="H43" s="27" t="n"/>
